--- a/SCH-STH/Impact assessments/Mali/ml_sch_sth_impact_202304_1_school.xlsx
+++ b/SCH-STH/Impact assessments/Mali/ml_sch_sth_impact_202304_1_school.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\SCH-STH\Impact assessments\Mali\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Mali\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E74A85-66CA-4475-99E2-6FD1561F8CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B889E2B-9C13-4E5E-A45C-A49BDE43C1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -26,8 +26,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1794" uniqueCount="414">
   <si>
     <t>type</t>
   </si>
@@ -84,7 +82,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">select_one </t>
     </r>
@@ -93,7 +91,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>provinces</t>
     </r>
@@ -110,7 +108,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">select_one </t>
     </r>
@@ -119,7 +117,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>district_list</t>
     </r>
@@ -139,7 +137,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">select_one </t>
     </r>
@@ -148,7 +146,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>subdistrict_list</t>
     </r>
@@ -163,7 +161,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>district_list</t>
     </r>
@@ -172,7 +170,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> = ${</t>
     </r>
@@ -182,7 +180,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>w_district</t>
     </r>
@@ -191,7 +189,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>}</t>
     </r>
@@ -212,7 +210,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>subdistrict_list</t>
     </r>
@@ -221,7 +219,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> = ${</t>
     </r>
@@ -231,7 +229,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>w_subdistrict</t>
     </r>
@@ -240,7 +238,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>}</t>
     </r>
@@ -263,7 +261,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">select_one </t>
     </r>
@@ -272,7 +270,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>yesNo</t>
     </r>
@@ -289,7 +287,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">select_one </t>
     </r>
@@ -298,7 +296,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>source_place</t>
     </r>
@@ -318,7 +316,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">select_one </t>
     </r>
@@ -327,7 +325,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>source_type</t>
     </r>
@@ -344,7 +342,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">select_one </t>
     </r>
@@ -353,7 +351,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>accessible_water</t>
     </r>
@@ -379,7 +377,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">select_one </t>
     </r>
@@ -388,7 +386,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>toilet_type</t>
     </r>
@@ -1485,23 +1483,26 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> = ${w_site_name}</t>
     </r>
   </si>
   <si>
-    <t>(2023 Avril) - 1. SCH/STH – Ecole/Localité V2</t>
-  </si>
-  <si>
-    <t>ml_sch_sth_impact_202304_1_school_v2</t>
+    <t>(2023 Avril) - 1. SCH/STH – Ecole/Localité V2.1</t>
+  </si>
+  <si>
+    <t>ml_sch_sth_impact_202304_1_school_v2_1</t>
+  </si>
+  <si>
+    <t>Latrine avec fosse mais sans dalle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1513,33 +1514,39 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1658,7 +1665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1727,6 +1734,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2577,11 +2593,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G657"/>
+  <dimension ref="A1:G658"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A520" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A73" sqref="A73:XFD542"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3232,61 +3248,61 @@
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
     </row>
-    <row r="47" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>126</v>
+      <c r="B47" s="28" t="s">
+        <v>413</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>126</v>
+        <v>413</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="10"/>
+    <row r="48" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>126</v>
+      </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
     </row>
-    <row r="49" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>129</v>
-      </c>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="10"/>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>127</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
@@ -3296,10 +3312,10 @@
         <v>132</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
@@ -3309,62 +3325,62 @@
         <v>132</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
     </row>
-    <row r="54" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
-        <v>136</v>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
     </row>
-    <row r="55" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>136</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>136</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
     </row>
-    <row r="57" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>136</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
@@ -3374,23 +3390,23 @@
         <v>136</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
-        <v>143</v>
+    <row r="59" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
@@ -3400,10 +3416,10 @@
         <v>143</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
@@ -3413,10 +3429,10 @@
         <v>143</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
@@ -3426,10 +3442,10 @@
         <v>143</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
@@ -3439,36 +3455,38 @@
         <v>143</v>
       </c>
       <c r="B63" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B64" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="E63" s="11"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C64" s="12"/>
+      <c r="E64" s="11"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>150</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>151</v>
-      </c>
+      <c r="C65" s="12"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>150</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -3476,10 +3494,10 @@
         <v>150</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -3487,10 +3505,10 @@
         <v>150</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -3498,10 +3516,10 @@
         <v>150</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -3509,10 +3527,10 @@
         <v>150</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -3520,29 +3538,27 @@
         <v>150</v>
       </c>
       <c r="B71" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>150</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C72" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="6"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="13"/>
-    </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>246</v>
-      </c>
+      <c r="A73" s="6"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
       <c r="D73" s="6"/>
       <c r="E73" s="13"/>
     </row>
@@ -3551,10 +3567,10 @@
         <v>70</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D74" s="6"/>
       <c r="E74" s="13"/>
@@ -3564,10 +3580,10 @@
         <v>70</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D75" s="6"/>
       <c r="E75" s="13"/>
@@ -3577,34 +3593,32 @@
         <v>70</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D76" s="6"/>
       <c r="E76" s="13"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="8"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
+      <c r="A77" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>248</v>
+      </c>
       <c r="D77" s="6"/>
       <c r="E77" s="13"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>249</v>
-      </c>
+      <c r="A78" s="8"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="6"/>
       <c r="E78" s="13"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -3612,13 +3626,13 @@
         <v>71</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E79" s="13"/>
     </row>
@@ -3627,13 +3641,13 @@
         <v>71</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E80" s="13"/>
     </row>
@@ -3642,10 +3656,10 @@
         <v>71</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>247</v>
@@ -3657,10 +3671,10 @@
         <v>71</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>158</v>
+        <v>251</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>158</v>
+        <v>251</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>247</v>
@@ -3672,13 +3686,13 @@
         <v>71</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>252</v>
+        <v>158</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>252</v>
+        <v>158</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E83" s="13"/>
     </row>
@@ -3687,10 +3701,10 @@
         <v>71</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>248</v>
@@ -3702,10 +3716,10 @@
         <v>71</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>248</v>
@@ -3713,32 +3727,33 @@
       <c r="E85" s="13"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B86"/>
-      <c r="C86"/>
+      <c r="A86" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E86" s="13"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>72</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>249</v>
-      </c>
+      <c r="B87"/>
+      <c r="C87"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>72</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>249</v>
@@ -3749,10 +3764,10 @@
         <v>72</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>249</v>
@@ -3763,10 +3778,10 @@
         <v>72</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>249</v>
@@ -3777,10 +3792,10 @@
         <v>72</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>249</v>
@@ -3791,10 +3806,10 @@
         <v>72</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>249</v>
@@ -3805,10 +3820,10 @@
         <v>72</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>249</v>
@@ -3819,10 +3834,10 @@
         <v>72</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>249</v>
@@ -3833,13 +3848,13 @@
         <v>72</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -3847,10 +3862,10 @@
         <v>72</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>252</v>
@@ -3861,10 +3876,10 @@
         <v>72</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>252</v>
@@ -3875,10 +3890,10 @@
         <v>72</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>252</v>
@@ -3889,10 +3904,10 @@
         <v>72</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>243</v>
+        <v>193</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>243</v>
+        <v>193</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>252</v>
@@ -3903,10 +3918,10 @@
         <v>72</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>194</v>
+        <v>243</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>194</v>
+        <v>243</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>252</v>
@@ -3917,10 +3932,10 @@
         <v>72</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>252</v>
@@ -3931,10 +3946,10 @@
         <v>72</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>252</v>
@@ -3945,10 +3960,10 @@
         <v>72</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>252</v>
@@ -3959,10 +3974,10 @@
         <v>72</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>252</v>
@@ -3973,13 +3988,13 @@
         <v>72</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -3987,10 +4002,10 @@
         <v>72</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>236</v>
@@ -4001,10 +4016,10 @@
         <v>72</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>236</v>
@@ -4015,10 +4030,10 @@
         <v>72</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>236</v>
@@ -4029,10 +4044,10 @@
         <v>72</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>236</v>
@@ -4043,10 +4058,10 @@
         <v>72</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>236</v>
@@ -4057,10 +4072,10 @@
         <v>72</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>236</v>
@@ -4071,10 +4086,10 @@
         <v>72</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E112" s="4" t="s">
         <v>236</v>
@@ -4085,10 +4100,10 @@
         <v>72</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E113" s="4" t="s">
         <v>236</v>
@@ -4099,27 +4114,27 @@
         <v>72</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>72</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -4127,10 +4142,10 @@
         <v>72</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>251</v>
@@ -4141,10 +4156,10 @@
         <v>72</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E117" s="4" t="s">
         <v>251</v>
@@ -4155,10 +4170,10 @@
         <v>72</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E118" s="4" t="s">
         <v>251</v>
@@ -4169,10 +4184,10 @@
         <v>72</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E119" s="4" t="s">
         <v>251</v>
@@ -4183,10 +4198,10 @@
         <v>72</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>251</v>
@@ -4197,10 +4212,10 @@
         <v>72</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>251</v>
@@ -4211,10 +4226,10 @@
         <v>72</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>251</v>
@@ -4225,10 +4240,10 @@
         <v>72</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>231</v>
+        <v>188</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>231</v>
+        <v>188</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>251</v>
@@ -4239,27 +4254,27 @@
         <v>72</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>189</v>
+        <v>231</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>189</v>
+        <v>231</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>72</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>158</v>
+        <v>251</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -4267,10 +4282,10 @@
         <v>72</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>158</v>
@@ -4281,10 +4296,10 @@
         <v>72</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E127" s="4" t="s">
         <v>158</v>
@@ -4295,10 +4310,10 @@
         <v>72</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>228</v>
+        <v>178</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>228</v>
+        <v>178</v>
       </c>
       <c r="E128" s="4" t="s">
         <v>158</v>
@@ -4309,10 +4324,10 @@
         <v>72</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E129" s="4" t="s">
         <v>158</v>
@@ -4323,10 +4338,10 @@
         <v>72</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E130" s="4" t="s">
         <v>158</v>
@@ -4337,10 +4352,10 @@
         <v>72</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="E131" s="4" t="s">
         <v>158</v>
@@ -4351,10 +4366,10 @@
         <v>72</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E132" s="4" t="s">
         <v>158</v>
@@ -4365,10 +4380,10 @@
         <v>72</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E133" s="4" t="s">
         <v>158</v>
@@ -4379,10 +4394,10 @@
         <v>72</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E134" s="4" t="s">
         <v>158</v>
@@ -4393,10 +4408,10 @@
         <v>72</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E135" s="4" t="s">
         <v>158</v>
@@ -4407,10 +4422,10 @@
         <v>72</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E136" s="4" t="s">
         <v>158</v>
@@ -4421,13 +4436,13 @@
         <v>72</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>250</v>
+        <v>158</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -4435,10 +4450,10 @@
         <v>72</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>250</v>
@@ -4449,10 +4464,10 @@
         <v>72</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E139" s="4" t="s">
         <v>250</v>
@@ -4463,10 +4478,10 @@
         <v>72</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E140" s="4" t="s">
         <v>250</v>
@@ -4477,10 +4492,10 @@
         <v>72</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E141" s="4" t="s">
         <v>250</v>
@@ -4491,10 +4506,10 @@
         <v>72</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>250</v>
@@ -4505,10 +4520,10 @@
         <v>72</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>250</v>
@@ -4519,10 +4534,10 @@
         <v>72</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>250</v>
@@ -4533,10 +4548,10 @@
         <v>72</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>226</v>
+        <v>170</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>226</v>
+        <v>170</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>250</v>
@@ -4547,10 +4562,10 @@
         <v>72</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E146" s="4" t="s">
         <v>250</v>
@@ -4561,13 +4576,13 @@
         <v>72</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -4575,10 +4590,10 @@
         <v>72</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>253</v>
@@ -4589,10 +4604,10 @@
         <v>72</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E149" s="4" t="s">
         <v>253</v>
@@ -4603,10 +4618,10 @@
         <v>72</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E150" s="4" t="s">
         <v>253</v>
@@ -4617,10 +4632,10 @@
         <v>72</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>253</v>
@@ -4631,10 +4646,10 @@
         <v>72</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E152" s="4" t="s">
         <v>253</v>
@@ -4645,10 +4660,10 @@
         <v>72</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E153" s="4" t="s">
         <v>253</v>
@@ -4659,10 +4674,10 @@
         <v>72</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E154" s="4" t="s">
         <v>253</v>
@@ -4673,10 +4688,10 @@
         <v>72</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>402</v>
+        <v>206</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>402</v>
+        <v>206</v>
       </c>
       <c r="E155" s="4" t="s">
         <v>253</v>
@@ -4687,10 +4702,10 @@
         <v>72</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>207</v>
+        <v>402</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>207</v>
+        <v>402</v>
       </c>
       <c r="E156" s="4" t="s">
         <v>253</v>
@@ -4701,13 +4716,13 @@
         <v>72</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -4715,10 +4730,10 @@
         <v>72</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E158" s="4" t="s">
         <v>248</v>
@@ -4729,10 +4744,10 @@
         <v>72</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E159" s="4" t="s">
         <v>248</v>
@@ -4743,10 +4758,10 @@
         <v>72</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E160" s="4" t="s">
         <v>248</v>
@@ -4757,10 +4772,10 @@
         <v>72</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E161" s="4" t="s">
         <v>248</v>
@@ -4771,10 +4786,10 @@
         <v>72</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E162" s="4" t="s">
         <v>248</v>
@@ -4785,10 +4800,10 @@
         <v>72</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E163" s="4" t="s">
         <v>248</v>
@@ -4799,10 +4814,10 @@
         <v>72</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E164" s="4" t="s">
         <v>248</v>
@@ -4813,10 +4828,10 @@
         <v>72</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E165" s="4" t="s">
         <v>248</v>
@@ -4827,27 +4842,27 @@
         <v>72</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E166" s="4" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>73</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="F168" s="4" t="s">
-        <v>218</v>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>72</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -4855,13 +4870,13 @@
         <v>73</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -4869,13 +4884,13 @@
         <v>73</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -4883,13 +4898,13 @@
         <v>73</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -4897,13 +4912,13 @@
         <v>73</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -4911,13 +4926,13 @@
         <v>73</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -4925,13 +4940,13 @@
         <v>73</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>287</v>
+        <v>370</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>287</v>
+        <v>370</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>181</v>
+        <v>225</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -4939,10 +4954,10 @@
         <v>73</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F175" s="4" t="s">
         <v>181</v>
@@ -4953,10 +4968,10 @@
         <v>73</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>380</v>
+        <v>288</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>380</v>
+        <v>288</v>
       </c>
       <c r="F176" s="4" t="s">
         <v>181</v>
@@ -4967,13 +4982,13 @@
         <v>73</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>316</v>
+        <v>380</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>316</v>
+        <v>380</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -4981,10 +4996,10 @@
         <v>73</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F178" s="4" t="s">
         <v>190</v>
@@ -4995,10 +5010,10 @@
         <v>73</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>383</v>
+        <v>315</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>383</v>
+        <v>315</v>
       </c>
       <c r="F179" s="4" t="s">
         <v>190</v>
@@ -5009,13 +5024,13 @@
         <v>73</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>208</v>
+        <v>383</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>208</v>
+        <v>383</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -5023,10 +5038,10 @@
         <v>73</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>396</v>
+        <v>208</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>396</v>
+        <v>208</v>
       </c>
       <c r="F181" s="4" t="s">
         <v>208</v>
@@ -5037,10 +5052,10 @@
         <v>73</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>347</v>
+        <v>396</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>347</v>
+        <v>396</v>
       </c>
       <c r="F182" s="4" t="s">
         <v>208</v>
@@ -5051,13 +5066,13 @@
         <v>73</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>254</v>
+        <v>347</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>254</v>
+        <v>347</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>164</v>
+        <v>208</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -5065,10 +5080,10 @@
         <v>73</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>371</v>
+        <v>254</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>371</v>
+        <v>254</v>
       </c>
       <c r="F184" s="4" t="s">
         <v>164</v>
@@ -5079,27 +5094,27 @@
         <v>73</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>255</v>
+        <v>371</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>255</v>
+        <v>371</v>
       </c>
       <c r="F185" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>73</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>199</v>
+        <v>255</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>199</v>
+        <v>255</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
@@ -5107,10 +5122,10 @@
         <v>73</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>330</v>
+        <v>199</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>330</v>
+        <v>199</v>
       </c>
       <c r="F187" s="4" t="s">
         <v>199</v>
@@ -5121,27 +5136,27 @@
         <v>73</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>389</v>
+        <v>330</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>389</v>
+        <v>330</v>
       </c>
       <c r="F188" s="4" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>73</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>303</v>
+        <v>389</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>303</v>
+        <v>389</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -5149,10 +5164,10 @@
         <v>73</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>244</v>
+        <v>303</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>244</v>
+        <v>303</v>
       </c>
       <c r="F190" s="4" t="s">
         <v>232</v>
@@ -5163,10 +5178,10 @@
         <v>73</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>304</v>
+        <v>244</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>304</v>
+        <v>244</v>
       </c>
       <c r="F191" s="4" t="s">
         <v>232</v>
@@ -5177,13 +5192,13 @@
         <v>73</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>364</v>
+        <v>304</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>364</v>
+        <v>304</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -5191,13 +5206,13 @@
         <v>73</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -5205,13 +5220,13 @@
         <v>73</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>233</v>
+        <v>366</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>233</v>
+        <v>366</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -5219,10 +5234,10 @@
         <v>73</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>305</v>
+        <v>233</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>305</v>
+        <v>233</v>
       </c>
       <c r="F195" s="4" t="s">
         <v>233</v>
@@ -5233,13 +5248,13 @@
         <v>73</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>191</v>
+        <v>233</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -5247,10 +5262,10 @@
         <v>73</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F197" s="4" t="s">
         <v>191</v>
@@ -5261,10 +5276,10 @@
         <v>73</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>384</v>
+        <v>318</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>384</v>
+        <v>318</v>
       </c>
       <c r="F198" s="4" t="s">
         <v>191</v>
@@ -5275,13 +5290,13 @@
         <v>73</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -5289,10 +5304,10 @@
         <v>73</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>397</v>
+        <v>349</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>397</v>
+        <v>349</v>
       </c>
       <c r="F200" s="4" t="s">
         <v>209</v>
@@ -5303,10 +5318,10 @@
         <v>73</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>348</v>
+        <v>397</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>348</v>
+        <v>397</v>
       </c>
       <c r="F201" s="4" t="s">
         <v>209</v>
@@ -5317,13 +5332,13 @@
         <v>73</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>274</v>
+        <v>348</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>274</v>
+        <v>348</v>
       </c>
       <c r="F202" s="4" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -5331,10 +5346,10 @@
         <v>73</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>174</v>
+        <v>274</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>174</v>
+        <v>274</v>
       </c>
       <c r="F203" s="4" t="s">
         <v>174</v>
@@ -5345,10 +5360,10 @@
         <v>73</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>378</v>
+        <v>174</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>378</v>
+        <v>174</v>
       </c>
       <c r="F204" s="4" t="s">
         <v>174</v>
@@ -5359,13 +5374,13 @@
         <v>73</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>182</v>
+        <v>378</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>182</v>
+        <v>378</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -5373,10 +5388,10 @@
         <v>73</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>289</v>
+        <v>182</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>289</v>
+        <v>182</v>
       </c>
       <c r="F206" s="4" t="s">
         <v>182</v>
@@ -5387,13 +5402,13 @@
         <v>73</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>374</v>
+        <v>289</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>374</v>
+        <v>289</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -5401,10 +5416,10 @@
         <v>73</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>259</v>
+        <v>374</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>259</v>
+        <v>374</v>
       </c>
       <c r="F208" s="4" t="s">
         <v>167</v>
@@ -5415,10 +5430,10 @@
         <v>73</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F209" s="4" t="s">
         <v>167</v>
@@ -5429,13 +5444,13 @@
         <v>73</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>177</v>
+        <v>260</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>177</v>
+        <v>260</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -5443,10 +5458,10 @@
         <v>73</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>279</v>
+        <v>177</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>279</v>
+        <v>177</v>
       </c>
       <c r="F211" s="4" t="s">
         <v>177</v>
@@ -5457,13 +5472,13 @@
         <v>73</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -5471,10 +5486,10 @@
         <v>73</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F213" s="4" t="s">
         <v>165</v>
@@ -5485,10 +5500,10 @@
         <v>73</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>372</v>
+        <v>257</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>372</v>
+        <v>257</v>
       </c>
       <c r="F214" s="4" t="s">
         <v>165</v>
@@ -5499,13 +5514,13 @@
         <v>73</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>234</v>
+        <v>165</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -5513,10 +5528,10 @@
         <v>73</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>306</v>
+        <v>234</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>306</v>
+        <v>234</v>
       </c>
       <c r="F216" s="4" t="s">
         <v>234</v>
@@ -5527,13 +5542,13 @@
         <v>73</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="F217" s="4" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -5541,10 +5556,10 @@
         <v>73</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F218" s="4" t="s">
         <v>200</v>
@@ -5555,10 +5570,10 @@
         <v>73</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>390</v>
+        <v>332</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>390</v>
+        <v>332</v>
       </c>
       <c r="F219" s="4" t="s">
         <v>200</v>
@@ -5569,13 +5584,13 @@
         <v>73</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>192</v>
+        <v>390</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>192</v>
+        <v>390</v>
       </c>
       <c r="F220" s="4" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -5583,10 +5598,10 @@
         <v>73</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>319</v>
+        <v>192</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>319</v>
+        <v>192</v>
       </c>
       <c r="F221" s="4" t="s">
         <v>192</v>
@@ -5597,13 +5612,13 @@
         <v>73</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="F222" s="4" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -5611,10 +5626,10 @@
         <v>73</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>398</v>
+        <v>351</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>398</v>
+        <v>351</v>
       </c>
       <c r="F223" s="4" t="s">
         <v>210</v>
@@ -5625,10 +5640,10 @@
         <v>73</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>350</v>
+        <v>398</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>350</v>
+        <v>398</v>
       </c>
       <c r="F224" s="4" t="s">
         <v>210</v>
@@ -5639,13 +5654,13 @@
         <v>73</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -5653,10 +5668,10 @@
         <v>73</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F226" s="4" t="s">
         <v>201</v>
@@ -5667,13 +5682,13 @@
         <v>73</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>178</v>
+        <v>334</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>178</v>
+        <v>334</v>
       </c>
       <c r="F227" s="4" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -5681,10 +5696,10 @@
         <v>73</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>282</v>
+        <v>178</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>282</v>
+        <v>178</v>
       </c>
       <c r="F228" s="4" t="s">
         <v>178</v>
@@ -5695,13 +5710,13 @@
         <v>73</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="F229" s="4" t="s">
-        <v>228</v>
+        <v>178</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -5709,10 +5724,10 @@
         <v>73</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>377</v>
+        <v>273</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>377</v>
+        <v>273</v>
       </c>
       <c r="F230" s="4" t="s">
         <v>228</v>
@@ -5723,10 +5738,10 @@
         <v>73</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>272</v>
+        <v>377</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>272</v>
+        <v>377</v>
       </c>
       <c r="F231" s="4" t="s">
         <v>228</v>
@@ -5737,13 +5752,13 @@
         <v>73</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="F232" s="4" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -5751,10 +5766,10 @@
         <v>73</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>307</v>
+        <v>235</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>307</v>
+        <v>235</v>
       </c>
       <c r="F233" s="4" t="s">
         <v>235</v>
@@ -5765,13 +5780,13 @@
         <v>73</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>236</v>
+        <v>307</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>236</v>
+        <v>307</v>
       </c>
       <c r="F234" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
@@ -5779,10 +5794,10 @@
         <v>73</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>308</v>
+        <v>236</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>308</v>
+        <v>236</v>
       </c>
       <c r="F235" s="4" t="s">
         <v>236</v>
@@ -5793,13 +5808,13 @@
         <v>73</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>352</v>
+        <v>308</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>352</v>
+        <v>308</v>
       </c>
       <c r="F236" s="4" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
@@ -5807,10 +5822,10 @@
         <v>73</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F237" s="4" t="s">
         <v>211</v>
@@ -5821,10 +5836,10 @@
         <v>73</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>399</v>
+        <v>353</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>399</v>
+        <v>353</v>
       </c>
       <c r="F238" s="4" t="s">
         <v>211</v>
@@ -5835,13 +5850,13 @@
         <v>73</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>309</v>
+        <v>399</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>309</v>
+        <v>399</v>
       </c>
       <c r="F239" s="4" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
@@ -5849,10 +5864,10 @@
         <v>73</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F240" s="4" t="s">
         <v>237</v>
@@ -5863,13 +5878,13 @@
         <v>73</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="F241" s="4" t="s">
-        <v>168</v>
+        <v>237</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -5877,10 +5892,10 @@
         <v>73</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F242" s="4" t="s">
         <v>168</v>
@@ -5891,13 +5906,13 @@
         <v>73</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>193</v>
+        <v>261</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>193</v>
+        <v>261</v>
       </c>
       <c r="F243" s="4" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -5905,10 +5920,10 @@
         <v>73</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>320</v>
+        <v>193</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>320</v>
+        <v>193</v>
       </c>
       <c r="F244" s="4" t="s">
         <v>193</v>
@@ -5919,13 +5934,13 @@
         <v>73</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>375</v>
+        <v>320</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>375</v>
+        <v>320</v>
       </c>
       <c r="F245" s="4" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -5933,10 +5948,10 @@
         <v>73</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>171</v>
+        <v>375</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>171</v>
+        <v>375</v>
       </c>
       <c r="F246" s="4" t="s">
         <v>171</v>
@@ -5947,10 +5962,10 @@
         <v>73</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>268</v>
+        <v>171</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>268</v>
+        <v>171</v>
       </c>
       <c r="F247" s="4" t="s">
         <v>171</v>
@@ -5961,13 +5976,13 @@
         <v>73</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>183</v>
+        <v>268</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>183</v>
+        <v>268</v>
       </c>
       <c r="F248" s="4" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -5975,10 +5990,10 @@
         <v>73</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>290</v>
+        <v>183</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>290</v>
+        <v>183</v>
       </c>
       <c r="F249" s="4" t="s">
         <v>183</v>
@@ -5989,13 +6004,13 @@
         <v>73</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>229</v>
+        <v>290</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>229</v>
+        <v>290</v>
       </c>
       <c r="F250" s="4" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -6003,10 +6018,10 @@
         <v>73</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>280</v>
+        <v>229</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>280</v>
+        <v>229</v>
       </c>
       <c r="F251" s="4" t="s">
         <v>229</v>
@@ -6017,13 +6032,13 @@
         <v>73</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="F252" s="4" t="s">
-        <v>184</v>
+        <v>229</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
@@ -6031,10 +6046,10 @@
         <v>73</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F253" s="4" t="s">
         <v>184</v>
@@ -6045,13 +6060,13 @@
         <v>73</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>385</v>
+        <v>292</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>385</v>
+        <v>292</v>
       </c>
       <c r="F254" s="4" t="s">
-        <v>243</v>
+        <v>184</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
@@ -6059,10 +6074,10 @@
         <v>73</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>322</v>
+        <v>385</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>322</v>
+        <v>385</v>
       </c>
       <c r="F255" s="4" t="s">
         <v>243</v>
@@ -6073,10 +6088,10 @@
         <v>73</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F256" s="4" t="s">
         <v>243</v>
@@ -6087,13 +6102,13 @@
         <v>73</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>230</v>
+        <v>321</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>230</v>
+        <v>321</v>
       </c>
       <c r="F257" s="4" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
@@ -6101,10 +6116,10 @@
         <v>73</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>281</v>
+        <v>230</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>281</v>
+        <v>230</v>
       </c>
       <c r="F258" s="4" t="s">
         <v>230</v>
@@ -6115,13 +6130,13 @@
         <v>73</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>335</v>
+        <v>281</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>335</v>
+        <v>281</v>
       </c>
       <c r="F259" s="4" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
@@ -6129,10 +6144,10 @@
         <v>73</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F260" s="4" t="s">
         <v>202</v>
@@ -6143,10 +6158,10 @@
         <v>73</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>391</v>
+        <v>336</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>391</v>
+        <v>336</v>
       </c>
       <c r="F261" s="4" t="s">
         <v>202</v>
@@ -6157,13 +6172,13 @@
         <v>73</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>311</v>
+        <v>391</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>311</v>
+        <v>391</v>
       </c>
       <c r="F262" s="4" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -6171,10 +6186,10 @@
         <v>73</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>403</v>
+        <v>311</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>403</v>
+        <v>311</v>
       </c>
       <c r="F263" s="4" t="s">
         <v>238</v>
@@ -6185,13 +6200,13 @@
         <v>73</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>194</v>
+        <v>403</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>194</v>
+        <v>403</v>
       </c>
       <c r="F264" s="4" t="s">
-        <v>194</v>
+        <v>238</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
@@ -6199,10 +6214,10 @@
         <v>73</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>312</v>
+        <v>194</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>312</v>
+        <v>194</v>
       </c>
       <c r="F265" s="4" t="s">
         <v>194</v>
@@ -6213,10 +6228,10 @@
         <v>73</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="F266" s="4" t="s">
         <v>194</v>
@@ -6227,13 +6242,13 @@
         <v>73</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="F267" s="4" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
@@ -6241,10 +6256,10 @@
         <v>73</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F268" s="4" t="s">
         <v>185</v>
@@ -6255,13 +6270,13 @@
         <v>73</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>186</v>
+        <v>294</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>186</v>
+        <v>294</v>
       </c>
       <c r="F269" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
@@ -6269,10 +6284,10 @@
         <v>73</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>295</v>
+        <v>186</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>295</v>
+        <v>186</v>
       </c>
       <c r="F270" s="4" t="s">
         <v>186</v>
@@ -6283,13 +6298,13 @@
         <v>73</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="F271" s="4" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
@@ -6297,10 +6312,10 @@
         <v>73</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>169</v>
+        <v>263</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>169</v>
+        <v>263</v>
       </c>
       <c r="F272" s="4" t="s">
         <v>169</v>
@@ -6311,13 +6326,13 @@
         <v>73</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="F273" s="4" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
@@ -6325,10 +6340,10 @@
         <v>73</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>337</v>
+        <v>203</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>337</v>
+        <v>203</v>
       </c>
       <c r="F274" s="4" t="s">
         <v>203</v>
@@ -6339,10 +6354,10 @@
         <v>73</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>392</v>
+        <v>337</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>392</v>
+        <v>337</v>
       </c>
       <c r="F275" s="4" t="s">
         <v>203</v>
@@ -6353,13 +6368,13 @@
         <v>73</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>276</v>
+        <v>392</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>276</v>
+        <v>392</v>
       </c>
       <c r="F276" s="4" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
@@ -6367,10 +6382,10 @@
         <v>73</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F277" s="4" t="s">
         <v>175</v>
@@ -6381,13 +6396,13 @@
         <v>73</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="F278" s="4" t="s">
-        <v>239</v>
+        <v>175</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
@@ -6395,10 +6410,10 @@
         <v>73</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>313</v>
+        <v>239</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>313</v>
+        <v>239</v>
       </c>
       <c r="F279" s="4" t="s">
         <v>239</v>
@@ -6409,13 +6424,13 @@
         <v>73</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>354</v>
+        <v>313</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>354</v>
+        <v>313</v>
       </c>
       <c r="F280" s="4" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
@@ -6423,10 +6438,10 @@
         <v>73</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>212</v>
+        <v>354</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>212</v>
+        <v>354</v>
       </c>
       <c r="F281" s="4" t="s">
         <v>212</v>
@@ -6437,10 +6452,10 @@
         <v>73</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>400</v>
+        <v>212</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>400</v>
+        <v>212</v>
       </c>
       <c r="F282" s="4" t="s">
         <v>212</v>
@@ -6451,13 +6466,13 @@
         <v>73</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>338</v>
+        <v>400</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>338</v>
+        <v>400</v>
       </c>
       <c r="F283" s="4" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
@@ -6465,10 +6480,10 @@
         <v>73</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F284" s="4" t="s">
         <v>204</v>
@@ -6479,10 +6494,10 @@
         <v>73</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>393</v>
+        <v>339</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>393</v>
+        <v>339</v>
       </c>
       <c r="F285" s="4" t="s">
         <v>204</v>
@@ -6493,13 +6508,13 @@
         <v>73</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>324</v>
+        <v>393</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>324</v>
+        <v>393</v>
       </c>
       <c r="F286" s="4" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
@@ -6507,10 +6522,10 @@
         <v>73</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F287" s="4" t="s">
         <v>195</v>
@@ -6521,13 +6536,13 @@
         <v>73</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="F288" s="4" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
@@ -6535,10 +6550,10 @@
         <v>73</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F289" s="4" t="s">
         <v>180</v>
@@ -6549,13 +6564,13 @@
         <v>73</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>240</v>
+        <v>285</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>240</v>
+        <v>285</v>
       </c>
       <c r="F290" s="4" t="s">
-        <v>240</v>
+        <v>180</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
@@ -6563,10 +6578,10 @@
         <v>73</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F291" s="4" t="s">
         <v>240</v>
@@ -6577,10 +6592,10 @@
         <v>73</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>314</v>
+        <v>245</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>314</v>
+        <v>245</v>
       </c>
       <c r="F292" s="4" t="s">
         <v>240</v>
@@ -6591,13 +6606,13 @@
         <v>73</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>355</v>
+        <v>314</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>355</v>
+        <v>314</v>
       </c>
       <c r="F293" s="4" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
@@ -6605,10 +6620,10 @@
         <v>73</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>213</v>
+        <v>355</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>213</v>
+        <v>355</v>
       </c>
       <c r="F294" s="4" t="s">
         <v>213</v>
@@ -6619,13 +6634,13 @@
         <v>73</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>381</v>
+        <v>213</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>381</v>
+        <v>213</v>
       </c>
       <c r="F295" s="4" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
@@ -6633,10 +6648,10 @@
         <v>73</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>296</v>
+        <v>381</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>296</v>
+        <v>381</v>
       </c>
       <c r="F296" s="4" t="s">
         <v>187</v>
@@ -6647,10 +6662,10 @@
         <v>73</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F297" s="4" t="s">
         <v>187</v>
@@ -6661,13 +6676,13 @@
         <v>73</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>340</v>
+        <v>297</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>340</v>
+        <v>297</v>
       </c>
       <c r="F298" s="4" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
@@ -6675,10 +6690,10 @@
         <v>73</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F299" s="4" t="s">
         <v>205</v>
@@ -6689,10 +6704,10 @@
         <v>73</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>394</v>
+        <v>341</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>394</v>
+        <v>341</v>
       </c>
       <c r="F300" s="4" t="s">
         <v>205</v>
@@ -6703,13 +6718,13 @@
         <v>73</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>214</v>
+        <v>394</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>214</v>
+        <v>394</v>
       </c>
       <c r="F301" s="4" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
@@ -6717,10 +6732,10 @@
         <v>73</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>356</v>
+        <v>214</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>356</v>
+        <v>214</v>
       </c>
       <c r="F302" s="4" t="s">
         <v>214</v>
@@ -6731,13 +6746,13 @@
         <v>73</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="F303" s="4" t="s">
-        <v>179</v>
+        <v>214</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
@@ -6745,10 +6760,10 @@
         <v>73</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>284</v>
+        <v>379</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>284</v>
+        <v>379</v>
       </c>
       <c r="F304" s="4" t="s">
         <v>179</v>
@@ -6759,10 +6774,10 @@
         <v>73</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F305" s="4" t="s">
         <v>179</v>
@@ -6773,13 +6788,13 @@
         <v>73</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>342</v>
+        <v>283</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>342</v>
+        <v>283</v>
       </c>
       <c r="F306" s="4" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
@@ -6787,10 +6802,10 @@
         <v>73</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F307" s="4" t="s">
         <v>206</v>
@@ -6801,10 +6816,10 @@
         <v>73</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>395</v>
+        <v>343</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>395</v>
+        <v>343</v>
       </c>
       <c r="F308" s="4" t="s">
         <v>206</v>
@@ -6815,13 +6830,13 @@
         <v>73</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>196</v>
+        <v>395</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>196</v>
+        <v>395</v>
       </c>
       <c r="F309" s="4" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
@@ -6829,10 +6844,10 @@
         <v>73</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>386</v>
+        <v>196</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>386</v>
+        <v>196</v>
       </c>
       <c r="F310" s="4" t="s">
         <v>196</v>
@@ -6843,10 +6858,10 @@
         <v>73</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>326</v>
+        <v>386</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>326</v>
+        <v>386</v>
       </c>
       <c r="F311" s="4" t="s">
         <v>196</v>
@@ -6857,13 +6872,13 @@
         <v>73</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>269</v>
+        <v>326</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>269</v>
+        <v>326</v>
       </c>
       <c r="F312" s="4" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
@@ -6871,10 +6886,10 @@
         <v>73</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>172</v>
+        <v>269</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>172</v>
+        <v>269</v>
       </c>
       <c r="F313" s="4" t="s">
         <v>172</v>
@@ -6885,13 +6900,13 @@
         <v>73</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>298</v>
+        <v>172</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>298</v>
+        <v>172</v>
       </c>
       <c r="F314" s="4" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
@@ -6899,10 +6914,10 @@
         <v>73</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>188</v>
+        <v>298</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>188</v>
+        <v>298</v>
       </c>
       <c r="F315" s="4" t="s">
         <v>188</v>
@@ -6913,10 +6928,10 @@
         <v>73</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>382</v>
+        <v>188</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>382</v>
+        <v>188</v>
       </c>
       <c r="F316" s="4" t="s">
         <v>188</v>
@@ -6927,13 +6942,13 @@
         <v>73</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>166</v>
+        <v>382</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>166</v>
+        <v>382</v>
       </c>
       <c r="F317" s="4" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
@@ -6941,10 +6956,10 @@
         <v>73</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>373</v>
+        <v>166</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>373</v>
+        <v>166</v>
       </c>
       <c r="F318" s="4" t="s">
         <v>166</v>
@@ -6955,10 +6970,10 @@
         <v>73</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>258</v>
+        <v>373</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>258</v>
+        <v>373</v>
       </c>
       <c r="F319" s="4" t="s">
         <v>166</v>
@@ -6969,13 +6984,13 @@
         <v>73</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="F320" s="4" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
@@ -6983,10 +6998,10 @@
         <v>73</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F321" s="4" t="s">
         <v>176</v>
@@ -6997,13 +7012,13 @@
         <v>73</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>358</v>
+        <v>278</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>358</v>
+        <v>278</v>
       </c>
       <c r="F322" s="4" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
@@ -7011,27 +7026,27 @@
         <v>73</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F323" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="324" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>73</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>300</v>
+        <v>357</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>300</v>
+        <v>357</v>
       </c>
       <c r="F324" s="4" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
     </row>
     <row r="325" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
@@ -7039,27 +7054,27 @@
         <v>73</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F325" s="4" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>73</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>360</v>
+        <v>299</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>360</v>
+        <v>299</v>
       </c>
       <c r="F326" s="4" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
@@ -7067,10 +7082,10 @@
         <v>73</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F327" s="4" t="s">
         <v>216</v>
@@ -7081,13 +7096,13 @@
         <v>73</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>387</v>
+        <v>359</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>387</v>
+        <v>359</v>
       </c>
       <c r="F328" s="4" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
@@ -7095,10 +7110,10 @@
         <v>73</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>327</v>
+        <v>387</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>327</v>
+        <v>387</v>
       </c>
       <c r="F329" s="4" t="s">
         <v>197</v>
@@ -7109,10 +7124,10 @@
         <v>73</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>197</v>
+        <v>327</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>197</v>
+        <v>327</v>
       </c>
       <c r="F330" s="4" t="s">
         <v>197</v>
@@ -7123,13 +7138,13 @@
         <v>73</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>344</v>
+        <v>197</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>344</v>
+        <v>197</v>
       </c>
       <c r="F331" s="4" t="s">
-        <v>402</v>
+        <v>197</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
@@ -7137,10 +7152,10 @@
         <v>73</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>402</v>
+        <v>344</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>402</v>
+        <v>344</v>
       </c>
       <c r="F332" s="4" t="s">
         <v>402</v>
@@ -7151,13 +7166,13 @@
         <v>73</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>345</v>
+        <v>402</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>345</v>
+        <v>402</v>
       </c>
       <c r="F333" s="4" t="s">
-        <v>207</v>
+        <v>402</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
@@ -7165,10 +7180,10 @@
         <v>73</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F334" s="4" t="s">
         <v>207</v>
@@ -7179,10 +7194,10 @@
         <v>73</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>207</v>
+        <v>346</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>207</v>
+        <v>346</v>
       </c>
       <c r="F335" s="4" t="s">
         <v>207</v>
@@ -7193,13 +7208,13 @@
         <v>73</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>329</v>
+        <v>207</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>329</v>
+        <v>207</v>
       </c>
       <c r="F336" s="4" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
@@ -7207,10 +7222,10 @@
         <v>73</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>388</v>
+        <v>329</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>388</v>
+        <v>329</v>
       </c>
       <c r="F337" s="4" t="s">
         <v>198</v>
@@ -7221,10 +7236,10 @@
         <v>73</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>328</v>
+        <v>388</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>328</v>
+        <v>388</v>
       </c>
       <c r="F338" s="4" t="s">
         <v>198</v>
@@ -7235,13 +7250,13 @@
         <v>73</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>264</v>
+        <v>328</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>264</v>
+        <v>328</v>
       </c>
       <c r="F339" s="4" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
@@ -7249,10 +7264,10 @@
         <v>73</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F340" s="4" t="s">
         <v>170</v>
@@ -7263,13 +7278,13 @@
         <v>73</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="F341" s="4" t="s">
-        <v>241</v>
+        <v>170</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
@@ -7277,10 +7292,10 @@
         <v>73</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F342" s="4" t="s">
         <v>241</v>
@@ -7291,13 +7306,13 @@
         <v>73</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>302</v>
+        <v>241</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>302</v>
+        <v>241</v>
       </c>
       <c r="F343" s="4" t="s">
-        <v>189</v>
+        <v>241</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
@@ -7305,10 +7320,10 @@
         <v>73</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F344" s="4" t="s">
         <v>189</v>
@@ -7319,13 +7334,13 @@
         <v>73</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="F345" s="4" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
@@ -7333,10 +7348,10 @@
         <v>73</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="F346" s="4" t="s">
         <v>226</v>
@@ -7347,13 +7362,13 @@
         <v>73</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>270</v>
+        <v>226</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>270</v>
+        <v>226</v>
       </c>
       <c r="F347" s="4" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
@@ -7361,10 +7376,10 @@
         <v>73</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F348" s="4" t="s">
         <v>173</v>
@@ -7375,10 +7390,10 @@
         <v>73</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>376</v>
+        <v>271</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>376</v>
+        <v>271</v>
       </c>
       <c r="F349" s="4" t="s">
         <v>173</v>
@@ -7389,13 +7404,13 @@
         <v>73</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>267</v>
+        <v>376</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>267</v>
+        <v>376</v>
       </c>
       <c r="F350" s="4" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
@@ -7403,10 +7418,10 @@
         <v>73</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="F351" s="4" t="s">
         <v>227</v>
@@ -7417,13 +7432,13 @@
         <v>73</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>362</v>
+        <v>227</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>362</v>
+        <v>227</v>
       </c>
       <c r="F352" s="4" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
@@ -7431,10 +7446,10 @@
         <v>73</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="F353" s="4" t="s">
         <v>217</v>
@@ -7445,27 +7460,27 @@
         <v>73</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="F354" s="4" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
-        <v>406</v>
-      </c>
-      <c r="B356" s="14">
-        <v>101</v>
-      </c>
-      <c r="C356" s="14">
-        <v>101</v>
-      </c>
-      <c r="G356" s="4" t="s">
-        <v>254</v>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>73</v>
+      </c>
+      <c r="B355" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C355" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="F355" s="4" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
@@ -7473,13 +7488,13 @@
         <v>406</v>
       </c>
       <c r="B357" s="14">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C357" s="14">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G357" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
@@ -7487,41 +7502,41 @@
         <v>406</v>
       </c>
       <c r="B358" s="14">
+        <v>102</v>
+      </c>
+      <c r="C358" s="14">
+        <v>102</v>
+      </c>
+      <c r="G358" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>406</v>
+      </c>
+      <c r="B359" s="14">
         <v>103</v>
       </c>
-      <c r="C358" s="14">
+      <c r="C359" s="14">
         <v>103</v>
       </c>
-      <c r="G358" s="4" t="s">
+      <c r="G359" s="4" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="359" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
-        <v>406</v>
-      </c>
-      <c r="B359" s="14">
+    <row r="360" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>406</v>
+      </c>
+      <c r="B360" s="14">
         <v>104</v>
       </c>
-      <c r="C359" s="14">
+      <c r="C360" s="14">
         <v>104</v>
       </c>
-      <c r="G359" s="4" t="s">
+      <c r="G360" s="4" t="s">
         <v>257</v>
-      </c>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
-        <v>406</v>
-      </c>
-      <c r="B360" s="14">
-        <v>105</v>
-      </c>
-      <c r="C360" s="14">
-        <v>105</v>
-      </c>
-      <c r="G360" s="4" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
@@ -7529,13 +7544,13 @@
         <v>406</v>
       </c>
       <c r="B361" s="14">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C361" s="14">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G361" s="4" t="s">
-        <v>258</v>
+        <v>166</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
@@ -7543,13 +7558,13 @@
         <v>406</v>
       </c>
       <c r="B362" s="14">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C362" s="14">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G362" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
@@ -7557,13 +7572,13 @@
         <v>406</v>
       </c>
       <c r="B363" s="14">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C363" s="14">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G363" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
@@ -7571,13 +7586,13 @@
         <v>406</v>
       </c>
       <c r="B364" s="14">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C364" s="14">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G364" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
@@ -7585,13 +7600,13 @@
         <v>406</v>
       </c>
       <c r="B365" s="14">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C365" s="14">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G365" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
@@ -7599,13 +7614,13 @@
         <v>406</v>
       </c>
       <c r="B366" s="14">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C366" s="14">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G366" s="4" t="s">
-        <v>169</v>
+        <v>262</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
@@ -7613,41 +7628,41 @@
         <v>406</v>
       </c>
       <c r="B367" s="14">
+        <v>111</v>
+      </c>
+      <c r="C367" s="14">
+        <v>111</v>
+      </c>
+      <c r="G367" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>406</v>
+      </c>
+      <c r="B368" s="14">
         <v>112</v>
       </c>
-      <c r="C367" s="14">
+      <c r="C368" s="14">
         <v>112</v>
       </c>
-      <c r="G367" s="4" t="s">
+      <c r="G368" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="368" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A368" t="s">
-        <v>406</v>
-      </c>
-      <c r="B368" s="14">
+    <row r="369" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>406</v>
+      </c>
+      <c r="B369" s="14">
         <v>113</v>
       </c>
-      <c r="C368" s="14">
+      <c r="C369" s="14">
         <v>113</v>
       </c>
-      <c r="G368" s="4" t="s">
+      <c r="G369" s="4" t="s">
         <v>264</v>
-      </c>
-    </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A369" t="s">
-        <v>406</v>
-      </c>
-      <c r="B369" s="14">
-        <v>114</v>
-      </c>
-      <c r="C369" s="14">
-        <v>114</v>
-      </c>
-      <c r="G369" s="4" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
@@ -7655,13 +7670,13 @@
         <v>406</v>
       </c>
       <c r="B370" s="14">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C370" s="14">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G370" s="4" t="s">
-        <v>226</v>
+        <v>265</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
@@ -7669,13 +7684,13 @@
         <v>406</v>
       </c>
       <c r="B371" s="14">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C371" s="14">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G371" s="4" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
@@ -7683,13 +7698,13 @@
         <v>406</v>
       </c>
       <c r="B372" s="14">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C372" s="14">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G372" s="4" t="s">
-        <v>227</v>
+        <v>266</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
@@ -7697,13 +7712,13 @@
         <v>406</v>
       </c>
       <c r="B373" s="14">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C373" s="14">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G373" s="4" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
@@ -7711,13 +7726,13 @@
         <v>406</v>
       </c>
       <c r="B374" s="14">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C374" s="14">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G374" s="4" t="s">
-        <v>171</v>
+        <v>267</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
@@ -7725,13 +7740,13 @@
         <v>406</v>
       </c>
       <c r="B375" s="14">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C375" s="14">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G375" s="4" t="s">
-        <v>268</v>
+        <v>171</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
@@ -7739,69 +7754,69 @@
         <v>406</v>
       </c>
       <c r="B376" s="14">
+        <v>120</v>
+      </c>
+      <c r="C376" s="14">
+        <v>120</v>
+      </c>
+      <c r="G376" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>406</v>
+      </c>
+      <c r="B377" s="14">
         <v>121</v>
       </c>
-      <c r="C376" s="14">
+      <c r="C377" s="14">
         <v>121</v>
       </c>
-      <c r="G376" s="4" t="s">
+      <c r="G377" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="377" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A377" t="s">
-        <v>406</v>
-      </c>
-      <c r="B377" s="14">
+    <row r="378" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>406</v>
+      </c>
+      <c r="B378" s="14">
         <v>122</v>
       </c>
-      <c r="C377" s="14">
+      <c r="C378" s="14">
         <v>122</v>
       </c>
-      <c r="G377" s="4" t="s">
+      <c r="G378" s="4" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A378" t="s">
-        <v>406</v>
-      </c>
-      <c r="B378" s="14">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>406</v>
+      </c>
+      <c r="B379" s="14">
         <v>123</v>
       </c>
-      <c r="C378" s="14">
+      <c r="C379" s="14">
         <v>123</v>
       </c>
-      <c r="G378" s="4" t="s">
+      <c r="G379" s="4" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="379" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A379" t="s">
-        <v>406</v>
-      </c>
-      <c r="B379" s="14">
+    <row r="380" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>406</v>
+      </c>
+      <c r="B380" s="14">
         <v>124</v>
       </c>
-      <c r="C379" s="14">
+      <c r="C380" s="14">
         <v>124</v>
       </c>
-      <c r="G379" s="4" t="s">
+      <c r="G380" s="4" t="s">
         <v>271</v>
-      </c>
-    </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A380" t="s">
-        <v>406</v>
-      </c>
-      <c r="B380" s="14">
-        <v>125</v>
-      </c>
-      <c r="C380" s="14">
-        <v>125</v>
-      </c>
-      <c r="G380" s="4" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
@@ -7809,13 +7824,13 @@
         <v>406</v>
       </c>
       <c r="B381" s="14">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C381" s="14">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G381" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
@@ -7823,13 +7838,13 @@
         <v>406</v>
       </c>
       <c r="B382" s="14">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C382" s="14">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G382" s="4" t="s">
-        <v>174</v>
+        <v>273</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
@@ -7837,13 +7852,13 @@
         <v>406</v>
       </c>
       <c r="B383" s="14">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C383" s="14">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G383" s="4" t="s">
-        <v>274</v>
+        <v>174</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
@@ -7851,13 +7866,13 @@
         <v>406</v>
       </c>
       <c r="B384" s="14">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C384" s="14">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G384" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
@@ -7865,27 +7880,27 @@
         <v>406</v>
       </c>
       <c r="B385" s="14">
+        <v>129</v>
+      </c>
+      <c r="C385" s="14">
+        <v>129</v>
+      </c>
+      <c r="G385" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>406</v>
+      </c>
+      <c r="B386" s="14">
         <v>130</v>
       </c>
-      <c r="C385" s="14">
+      <c r="C386" s="14">
         <v>130</v>
       </c>
-      <c r="G385" s="4" t="s">
+      <c r="G386" s="4" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="386" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A386" t="s">
-        <v>406</v>
-      </c>
-      <c r="B386" s="14">
-        <v>131</v>
-      </c>
-      <c r="C386" s="14">
-        <v>131</v>
-      </c>
-      <c r="G386" s="4" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="387" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
@@ -7893,41 +7908,41 @@
         <v>406</v>
       </c>
       <c r="B387" s="14">
+        <v>131</v>
+      </c>
+      <c r="C387" s="14">
+        <v>131</v>
+      </c>
+      <c r="G387" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>406</v>
+      </c>
+      <c r="B388" s="14">
         <v>132</v>
       </c>
-      <c r="C387" s="14">
+      <c r="C388" s="14">
         <v>132</v>
       </c>
-      <c r="G387" s="4" t="s">
+      <c r="G388" s="4" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A388" t="s">
-        <v>406</v>
-      </c>
-      <c r="B388" s="14">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>406</v>
+      </c>
+      <c r="B389" s="14">
         <v>133</v>
       </c>
-      <c r="C388" s="14">
+      <c r="C389" s="14">
         <v>133</v>
       </c>
-      <c r="G388" s="4" t="s">
+      <c r="G389" s="4" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="389" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A389" t="s">
-        <v>406</v>
-      </c>
-      <c r="B389" s="14">
-        <v>134</v>
-      </c>
-      <c r="C389" s="14">
-        <v>134</v>
-      </c>
-      <c r="G389" s="4" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="390" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
@@ -7935,27 +7950,27 @@
         <v>406</v>
       </c>
       <c r="B390" s="14">
+        <v>134</v>
+      </c>
+      <c r="C390" s="14">
+        <v>134</v>
+      </c>
+      <c r="G390" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>406</v>
+      </c>
+      <c r="B391" s="14">
         <v>135</v>
       </c>
-      <c r="C390" s="14">
+      <c r="C391" s="14">
         <v>135</v>
       </c>
-      <c r="G390" s="4" t="s">
+      <c r="G391" s="4" t="s">
         <v>229</v>
-      </c>
-    </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A391" t="s">
-        <v>406</v>
-      </c>
-      <c r="B391" s="14">
-        <v>136</v>
-      </c>
-      <c r="C391" s="14">
-        <v>136</v>
-      </c>
-      <c r="G391" s="4" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
@@ -7963,41 +7978,41 @@
         <v>406</v>
       </c>
       <c r="B392" s="14">
+        <v>136</v>
+      </c>
+      <c r="C392" s="14">
+        <v>136</v>
+      </c>
+      <c r="G392" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>406</v>
+      </c>
+      <c r="B393" s="14">
         <v>137</v>
       </c>
-      <c r="C392" s="14">
+      <c r="C393" s="14">
         <v>137</v>
       </c>
-      <c r="G392" s="4" t="s">
+      <c r="G393" s="4" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="393" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A393" t="s">
-        <v>406</v>
-      </c>
-      <c r="B393" s="14">
+    <row r="394" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>406</v>
+      </c>
+      <c r="B394" s="14">
         <v>138</v>
       </c>
-      <c r="C393" s="14">
+      <c r="C394" s="14">
         <v>138</v>
       </c>
-      <c r="G393" s="4" t="s">
+      <c r="G394" s="4" t="s">
         <v>281</v>
-      </c>
-    </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A394" t="s">
-        <v>406</v>
-      </c>
-      <c r="B394" s="14">
-        <v>139</v>
-      </c>
-      <c r="C394" s="14">
-        <v>139</v>
-      </c>
-      <c r="G394" s="4" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
@@ -8005,13 +8020,13 @@
         <v>406</v>
       </c>
       <c r="B395" s="14">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C395" s="14">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G395" s="4" t="s">
-        <v>282</v>
+        <v>178</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
@@ -8019,41 +8034,41 @@
         <v>406</v>
       </c>
       <c r="B396" s="14">
+        <v>140</v>
+      </c>
+      <c r="C396" s="14">
+        <v>140</v>
+      </c>
+      <c r="G396" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>406</v>
+      </c>
+      <c r="B397" s="14">
         <v>141</v>
       </c>
-      <c r="C396" s="14">
+      <c r="C397" s="14">
         <v>141</v>
       </c>
-      <c r="G396" s="4" t="s">
+      <c r="G397" s="4" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="397" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A397" t="s">
-        <v>406</v>
-      </c>
-      <c r="B397" s="14">
+    <row r="398" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>406</v>
+      </c>
+      <c r="B398" s="14">
         <v>142</v>
       </c>
-      <c r="C397" s="14">
+      <c r="C398" s="14">
         <v>142</v>
       </c>
-      <c r="G397" s="4" t="s">
+      <c r="G398" s="4" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A398" t="s">
-        <v>406</v>
-      </c>
-      <c r="B398" s="14">
-        <v>143</v>
-      </c>
-      <c r="C398" s="14">
-        <v>143</v>
-      </c>
-      <c r="G398" s="4" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
@@ -8061,27 +8076,27 @@
         <v>406</v>
       </c>
       <c r="B399" s="14">
+        <v>143</v>
+      </c>
+      <c r="C399" s="14">
+        <v>143</v>
+      </c>
+      <c r="G399" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>406</v>
+      </c>
+      <c r="B400" s="14">
         <v>144</v>
       </c>
-      <c r="C399" s="14">
+      <c r="C400" s="14">
         <v>144</v>
       </c>
-      <c r="G399" s="4" t="s">
+      <c r="G400" s="4" t="s">
         <v>286</v>
-      </c>
-    </row>
-    <row r="400" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A400" t="s">
-        <v>406</v>
-      </c>
-      <c r="B400" s="14">
-        <v>145</v>
-      </c>
-      <c r="C400" s="14">
-        <v>145</v>
-      </c>
-      <c r="G400" s="4" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="401" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
@@ -8089,27 +8104,27 @@
         <v>406</v>
       </c>
       <c r="B401" s="14">
+        <v>145</v>
+      </c>
+      <c r="C401" s="14">
+        <v>145</v>
+      </c>
+      <c r="G401" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>406</v>
+      </c>
+      <c r="B402" s="14">
         <v>146</v>
       </c>
-      <c r="C401" s="14">
+      <c r="C402" s="14">
         <v>146</v>
       </c>
-      <c r="G401" s="4" t="s">
+      <c r="G402" s="4" t="s">
         <v>288</v>
-      </c>
-    </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A402" t="s">
-        <v>406</v>
-      </c>
-      <c r="B402" s="14">
-        <v>147</v>
-      </c>
-      <c r="C402" s="14">
-        <v>147</v>
-      </c>
-      <c r="G402" s="4" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
@@ -8117,13 +8132,13 @@
         <v>406</v>
       </c>
       <c r="B403" s="14">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C403" s="14">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G403" s="4" t="s">
-        <v>289</v>
+        <v>182</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
@@ -8131,13 +8146,13 @@
         <v>406</v>
       </c>
       <c r="B404" s="14">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C404" s="14">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G404" s="4" t="s">
-        <v>183</v>
+        <v>289</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
@@ -8145,111 +8160,111 @@
         <v>406</v>
       </c>
       <c r="B405" s="14">
+        <v>149</v>
+      </c>
+      <c r="C405" s="14">
+        <v>149</v>
+      </c>
+      <c r="G405" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>406</v>
+      </c>
+      <c r="B406" s="14">
         <v>150</v>
       </c>
-      <c r="C405" s="14">
+      <c r="C406" s="14">
         <v>150</v>
       </c>
-      <c r="G405" s="4" t="s">
+      <c r="G406" s="4" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="406" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A406" t="s">
-        <v>406</v>
-      </c>
-      <c r="B406" s="14">
+    <row r="407" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>406</v>
+      </c>
+      <c r="B407" s="14">
         <v>151</v>
       </c>
-      <c r="C406" s="14">
+      <c r="C407" s="14">
         <v>151</v>
       </c>
-      <c r="G406" s="4" t="s">
+      <c r="G407" s="4" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A407" t="s">
-        <v>406</v>
-      </c>
-      <c r="B407" s="14">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>406</v>
+      </c>
+      <c r="B408" s="14">
         <v>152</v>
       </c>
-      <c r="C407" s="14">
+      <c r="C408" s="14">
         <v>152</v>
       </c>
-      <c r="G407" s="4" t="s">
+      <c r="G408" s="4" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="408" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A408" t="s">
-        <v>406</v>
-      </c>
-      <c r="B408" s="14">
+    <row r="409" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>406</v>
+      </c>
+      <c r="B409" s="14">
         <v>153</v>
       </c>
-      <c r="C408" s="14">
+      <c r="C409" s="14">
         <v>153</v>
       </c>
-      <c r="G408" s="4" t="s">
+      <c r="G409" s="4" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="409" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A409" t="s">
-        <v>406</v>
-      </c>
-      <c r="B409" s="14">
+    <row r="410" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>406</v>
+      </c>
+      <c r="B410" s="14">
         <v>154</v>
       </c>
-      <c r="C409" s="14">
+      <c r="C410" s="14">
         <v>154</v>
       </c>
-      <c r="G409" s="4" t="s">
+      <c r="G410" s="4" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A410" t="s">
-        <v>406</v>
-      </c>
-      <c r="B410" s="14">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>406</v>
+      </c>
+      <c r="B411" s="14">
         <v>155</v>
       </c>
-      <c r="C410" s="14">
+      <c r="C411" s="14">
         <v>155</v>
       </c>
-      <c r="G410" s="4" t="s">
+      <c r="G411" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="411" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A411" t="s">
-        <v>406</v>
-      </c>
-      <c r="B411" s="14">
+    <row r="412" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>406</v>
+      </c>
+      <c r="B412" s="14">
         <v>156</v>
       </c>
-      <c r="C411" s="14">
+      <c r="C412" s="14">
         <v>156</v>
       </c>
-      <c r="G411" s="4" t="s">
+      <c r="G412" s="4" t="s">
         <v>295</v>
-      </c>
-    </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A412" t="s">
-        <v>406</v>
-      </c>
-      <c r="B412" s="14">
-        <v>157</v>
-      </c>
-      <c r="C412" s="14">
-        <v>157</v>
-      </c>
-      <c r="G412" s="4" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
@@ -8257,13 +8272,13 @@
         <v>406</v>
       </c>
       <c r="B413" s="14">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C413" s="14">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G413" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
@@ -8271,27 +8286,27 @@
         <v>406</v>
       </c>
       <c r="B414" s="14">
+        <v>158</v>
+      </c>
+      <c r="C414" s="14">
+        <v>158</v>
+      </c>
+      <c r="G414" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>406</v>
+      </c>
+      <c r="B415" s="14">
         <v>159</v>
       </c>
-      <c r="C414" s="14">
+      <c r="C415" s="14">
         <v>159</v>
       </c>
-      <c r="G414" s="4" t="s">
+      <c r="G415" s="4" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="415" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A415" t="s">
-        <v>406</v>
-      </c>
-      <c r="B415" s="14">
-        <v>160</v>
-      </c>
-      <c r="C415" s="14">
-        <v>160</v>
-      </c>
-      <c r="G415" s="4" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="416" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
@@ -8299,27 +8314,27 @@
         <v>406</v>
       </c>
       <c r="B416" s="14">
+        <v>160</v>
+      </c>
+      <c r="C416" s="14">
+        <v>160</v>
+      </c>
+      <c r="G416" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>406</v>
+      </c>
+      <c r="B417" s="14">
         <v>161</v>
       </c>
-      <c r="C416" s="14">
+      <c r="C417" s="14">
         <v>161</v>
       </c>
-      <c r="G416" s="4" t="s">
+      <c r="G417" s="4" t="s">
         <v>299</v>
-      </c>
-    </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A417" t="s">
-        <v>406</v>
-      </c>
-      <c r="B417" s="14">
-        <v>162</v>
-      </c>
-      <c r="C417" s="14">
-        <v>162</v>
-      </c>
-      <c r="G417" s="4" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
@@ -8327,55 +8342,55 @@
         <v>406</v>
       </c>
       <c r="B418" s="14">
+        <v>162</v>
+      </c>
+      <c r="C418" s="14">
+        <v>162</v>
+      </c>
+      <c r="G418" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>406</v>
+      </c>
+      <c r="B419" s="14">
         <v>163</v>
       </c>
-      <c r="C418" s="14">
+      <c r="C419" s="14">
         <v>163</v>
       </c>
-      <c r="G418" s="4" t="s">
+      <c r="G419" s="4" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="419" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A419" t="s">
-        <v>406</v>
-      </c>
-      <c r="B419" s="14">
+    <row r="420" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>406</v>
+      </c>
+      <c r="B420" s="14">
         <v>164</v>
       </c>
-      <c r="C419" s="14">
+      <c r="C420" s="14">
         <v>164</v>
       </c>
-      <c r="G419" s="4" t="s">
+      <c r="G420" s="4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A420" t="s">
-        <v>406</v>
-      </c>
-      <c r="B420" s="14">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>406</v>
+      </c>
+      <c r="B421" s="14">
         <v>165</v>
       </c>
-      <c r="C420" s="14">
+      <c r="C421" s="14">
         <v>165</v>
       </c>
-      <c r="G420" s="4" t="s">
+      <c r="G421" s="4" t="s">
         <v>303</v>
-      </c>
-    </row>
-    <row r="421" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A421" t="s">
-        <v>406</v>
-      </c>
-      <c r="B421" s="14">
-        <v>166</v>
-      </c>
-      <c r="C421" s="14">
-        <v>166</v>
-      </c>
-      <c r="G421" s="4" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="422" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
@@ -8383,27 +8398,27 @@
         <v>406</v>
       </c>
       <c r="B422" s="14">
+        <v>166</v>
+      </c>
+      <c r="C422" s="14">
+        <v>166</v>
+      </c>
+      <c r="G422" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>406</v>
+      </c>
+      <c r="B423" s="14">
         <v>167</v>
       </c>
-      <c r="C422" s="14">
+      <c r="C423" s="14">
         <v>167</v>
       </c>
-      <c r="G422" s="4" t="s">
+      <c r="G423" s="4" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A423" t="s">
-        <v>406</v>
-      </c>
-      <c r="B423" s="14">
-        <v>168</v>
-      </c>
-      <c r="C423" s="14">
-        <v>168</v>
-      </c>
-      <c r="G423" s="4" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
@@ -8411,13 +8426,13 @@
         <v>406</v>
       </c>
       <c r="B424" s="14">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C424" s="14">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G424" s="4" t="s">
-        <v>234</v>
+        <v>305</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
@@ -8425,13 +8440,13 @@
         <v>406</v>
       </c>
       <c r="B425" s="14">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C425" s="14">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G425" s="4" t="s">
-        <v>306</v>
+        <v>234</v>
       </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
@@ -8439,41 +8454,41 @@
         <v>406</v>
       </c>
       <c r="B426" s="14">
+        <v>170</v>
+      </c>
+      <c r="C426" s="14">
+        <v>170</v>
+      </c>
+      <c r="G426" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>406</v>
+      </c>
+      <c r="B427" s="14">
         <v>171</v>
       </c>
-      <c r="C426" s="14">
+      <c r="C427" s="14">
         <v>171</v>
       </c>
-      <c r="G426" s="4" t="s">
+      <c r="G427" s="4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="427" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A427" t="s">
-        <v>406</v>
-      </c>
-      <c r="B427" s="14">
+    <row r="428" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>406</v>
+      </c>
+      <c r="B428" s="14">
         <v>172</v>
       </c>
-      <c r="C427" s="14">
+      <c r="C428" s="14">
         <v>172</v>
       </c>
-      <c r="G427" s="4" t="s">
+      <c r="G428" s="4" t="s">
         <v>307</v>
-      </c>
-    </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A428" t="s">
-        <v>406</v>
-      </c>
-      <c r="B428" s="14">
-        <v>173</v>
-      </c>
-      <c r="C428" s="14">
-        <v>173</v>
-      </c>
-      <c r="G428" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
@@ -8481,27 +8496,27 @@
         <v>406</v>
       </c>
       <c r="B429" s="14">
+        <v>173</v>
+      </c>
+      <c r="C429" s="14">
+        <v>173</v>
+      </c>
+      <c r="G429" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>406</v>
+      </c>
+      <c r="B430" s="14">
         <v>174</v>
       </c>
-      <c r="C429" s="14">
+      <c r="C430" s="14">
         <v>174</v>
       </c>
-      <c r="G429" s="4" t="s">
+      <c r="G430" s="4" t="s">
         <v>308</v>
-      </c>
-    </row>
-    <row r="430" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A430" t="s">
-        <v>406</v>
-      </c>
-      <c r="B430" s="14">
-        <v>175</v>
-      </c>
-      <c r="C430" s="14">
-        <v>175</v>
-      </c>
-      <c r="G430" s="4" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="431" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
@@ -8509,41 +8524,41 @@
         <v>406</v>
       </c>
       <c r="B431" s="14">
+        <v>175</v>
+      </c>
+      <c r="C431" s="14">
+        <v>175</v>
+      </c>
+      <c r="G431" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>406</v>
+      </c>
+      <c r="B432" s="14">
         <v>176</v>
       </c>
-      <c r="C431" s="14">
+      <c r="C432" s="14">
         <v>176</v>
       </c>
-      <c r="G431" s="4" t="s">
+      <c r="G432" s="4" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A432" t="s">
-        <v>406</v>
-      </c>
-      <c r="B432" s="14">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>406</v>
+      </c>
+      <c r="B433" s="14">
         <v>177</v>
       </c>
-      <c r="C432" s="14">
+      <c r="C433" s="14">
         <v>177</v>
       </c>
-      <c r="G432" s="4" t="s">
+      <c r="G433" s="4" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="433" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A433" t="s">
-        <v>406</v>
-      </c>
-      <c r="B433" s="14">
-        <v>178</v>
-      </c>
-      <c r="C433" s="14">
-        <v>178</v>
-      </c>
-      <c r="G433" s="4" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="434" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
@@ -8551,27 +8566,27 @@
         <v>406</v>
       </c>
       <c r="B434" s="14">
+        <v>178</v>
+      </c>
+      <c r="C434" s="14">
+        <v>178</v>
+      </c>
+      <c r="G434" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>406</v>
+      </c>
+      <c r="B435" s="14">
         <v>179</v>
       </c>
-      <c r="C434" s="14">
+      <c r="C435" s="14">
         <v>179</v>
       </c>
-      <c r="G434" s="4" t="s">
+      <c r="G435" s="4" t="s">
         <v>239</v>
-      </c>
-    </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A435" t="s">
-        <v>406</v>
-      </c>
-      <c r="B435" s="14">
-        <v>180</v>
-      </c>
-      <c r="C435" s="14">
-        <v>180</v>
-      </c>
-      <c r="G435" s="4" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
@@ -8579,13 +8594,13 @@
         <v>406</v>
       </c>
       <c r="B436" s="14">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C436" s="14">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G436" s="4" t="s">
-        <v>240</v>
+        <v>313</v>
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
@@ -8593,13 +8608,13 @@
         <v>406</v>
       </c>
       <c r="B437" s="14">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C437" s="14">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G437" s="4" t="s">
-        <v>314</v>
+        <v>240</v>
       </c>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
@@ -8607,13 +8622,13 @@
         <v>406</v>
       </c>
       <c r="B438" s="14">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C438" s="14">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G438" s="4" t="s">
-        <v>241</v>
+        <v>314</v>
       </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
@@ -8621,27 +8636,27 @@
         <v>406</v>
       </c>
       <c r="B439" s="14">
+        <v>183</v>
+      </c>
+      <c r="C439" s="14">
+        <v>183</v>
+      </c>
+      <c r="G439" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>406</v>
+      </c>
+      <c r="B440" s="14">
         <v>184</v>
       </c>
-      <c r="C439" s="14">
+      <c r="C440" s="14">
         <v>184</v>
       </c>
-      <c r="G439" s="4" t="s">
+      <c r="G440" s="4" t="s">
         <v>242</v>
-      </c>
-    </row>
-    <row r="440" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A440" t="s">
-        <v>406</v>
-      </c>
-      <c r="B440" s="14">
-        <v>185</v>
-      </c>
-      <c r="C440" s="14">
-        <v>185</v>
-      </c>
-      <c r="G440" s="4" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="441" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
@@ -8649,83 +8664,83 @@
         <v>406</v>
       </c>
       <c r="B441" s="14">
+        <v>185</v>
+      </c>
+      <c r="C441" s="14">
+        <v>185</v>
+      </c>
+      <c r="G441" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>406</v>
+      </c>
+      <c r="B442" s="14">
         <v>186</v>
       </c>
-      <c r="C441" s="14">
+      <c r="C442" s="14">
         <v>186</v>
       </c>
-      <c r="G441" s="4" t="s">
+      <c r="G442" s="4" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A442" t="s">
-        <v>406</v>
-      </c>
-      <c r="B442" s="14">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>406</v>
+      </c>
+      <c r="B443" s="14">
         <v>187</v>
       </c>
-      <c r="C442" s="14">
+      <c r="C443" s="14">
         <v>187</v>
       </c>
-      <c r="G442" s="4" t="s">
+      <c r="G443" s="4" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="443" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A443" t="s">
-        <v>406</v>
-      </c>
-      <c r="B443" s="14">
+    <row r="444" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>406</v>
+      </c>
+      <c r="B444" s="14">
         <v>188</v>
       </c>
-      <c r="C443" s="14">
+      <c r="C444" s="14">
         <v>188</v>
       </c>
-      <c r="G443" s="4" t="s">
+      <c r="G444" s="4" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A444" t="s">
-        <v>406</v>
-      </c>
-      <c r="B444" s="14">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>406</v>
+      </c>
+      <c r="B445" s="14">
         <v>189</v>
       </c>
-      <c r="C444" s="14">
+      <c r="C445" s="14">
         <v>189</v>
       </c>
-      <c r="G444" s="4" t="s">
+      <c r="G445" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="445" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A445" t="s">
-        <v>406</v>
-      </c>
-      <c r="B445" s="14">
+    <row r="446" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>406</v>
+      </c>
+      <c r="B446" s="14">
         <v>190</v>
       </c>
-      <c r="C445" s="14">
+      <c r="C446" s="14">
         <v>190</v>
       </c>
-      <c r="G445" s="4" t="s">
+      <c r="G446" s="4" t="s">
         <v>319</v>
-      </c>
-    </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A446" t="s">
-        <v>406</v>
-      </c>
-      <c r="B446" s="14">
-        <v>191</v>
-      </c>
-      <c r="C446" s="14">
-        <v>191</v>
-      </c>
-      <c r="G446" s="4" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
@@ -8733,13 +8748,13 @@
         <v>406</v>
       </c>
       <c r="B447" s="14">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C447" s="14">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G447" s="4" t="s">
-        <v>320</v>
+        <v>193</v>
       </c>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
@@ -8747,13 +8762,13 @@
         <v>406</v>
       </c>
       <c r="B448" s="14">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C448" s="14">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G448" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
@@ -8761,13 +8776,13 @@
         <v>406</v>
       </c>
       <c r="B449" s="14">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C449" s="14">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G449" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
@@ -8775,41 +8790,41 @@
         <v>406</v>
       </c>
       <c r="B450" s="14">
+        <v>194</v>
+      </c>
+      <c r="C450" s="14">
+        <v>194</v>
+      </c>
+      <c r="G450" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>406</v>
+      </c>
+      <c r="B451" s="14">
         <v>195</v>
       </c>
-      <c r="C450" s="14">
+      <c r="C451" s="14">
         <v>195</v>
       </c>
-      <c r="G450" s="4" t="s">
+      <c r="G451" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="451" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A451" t="s">
-        <v>406</v>
-      </c>
-      <c r="B451" s="14">
+    <row r="452" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>406</v>
+      </c>
+      <c r="B452" s="14">
         <v>196</v>
       </c>
-      <c r="C451" s="14">
+      <c r="C452" s="14">
         <v>196</v>
       </c>
-      <c r="G451" s="4" t="s">
+      <c r="G452" s="4" t="s">
         <v>323</v>
-      </c>
-    </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A452" t="s">
-        <v>406</v>
-      </c>
-      <c r="B452" s="14">
-        <v>197</v>
-      </c>
-      <c r="C452" s="14">
-        <v>197</v>
-      </c>
-      <c r="G452" s="4" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
@@ -8817,13 +8832,13 @@
         <v>406</v>
       </c>
       <c r="B453" s="14">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C453" s="14">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G453" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
@@ -8831,13 +8846,13 @@
         <v>406</v>
       </c>
       <c r="B454" s="14">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C454" s="14">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G454" s="4" t="s">
-        <v>196</v>
+        <v>325</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
@@ -8845,13 +8860,13 @@
         <v>406</v>
       </c>
       <c r="B455" s="14">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C455" s="14">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G455" s="4" t="s">
-        <v>326</v>
+        <v>196</v>
       </c>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
@@ -8859,13 +8874,13 @@
         <v>406</v>
       </c>
       <c r="B456" s="14">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C456" s="14">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G456" s="4" t="s">
-        <v>197</v>
+        <v>326</v>
       </c>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
@@ -8873,13 +8888,13 @@
         <v>406</v>
       </c>
       <c r="B457" s="14">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C457" s="14">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G457" s="4" t="s">
-        <v>327</v>
+        <v>197</v>
       </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
@@ -8887,13 +8902,13 @@
         <v>406</v>
       </c>
       <c r="B458" s="14">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C458" s="14">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G458" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
@@ -8901,41 +8916,41 @@
         <v>406</v>
       </c>
       <c r="B459" s="14">
+        <v>203</v>
+      </c>
+      <c r="C459" s="14">
+        <v>203</v>
+      </c>
+      <c r="G459" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>406</v>
+      </c>
+      <c r="B460" s="14">
         <v>204</v>
       </c>
-      <c r="C459" s="14">
+      <c r="C460" s="14">
         <v>204</v>
       </c>
-      <c r="G459" s="4" t="s">
+      <c r="G460" s="4" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="460" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A460" t="s">
-        <v>406</v>
-      </c>
-      <c r="B460" s="14">
+    <row r="461" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>406</v>
+      </c>
+      <c r="B461" s="14">
         <v>205</v>
       </c>
-      <c r="C460" s="14">
+      <c r="C461" s="14">
         <v>205</v>
       </c>
-      <c r="G460" s="4" t="s">
+      <c r="G461" s="4" t="s">
         <v>199</v>
-      </c>
-    </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A461" t="s">
-        <v>406</v>
-      </c>
-      <c r="B461" s="14">
-        <v>206</v>
-      </c>
-      <c r="C461" s="14">
-        <v>206</v>
-      </c>
-      <c r="G461" s="4" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
@@ -8943,13 +8958,13 @@
         <v>406</v>
       </c>
       <c r="B462" s="14">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C462" s="14">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G462" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
@@ -8957,41 +8972,41 @@
         <v>406</v>
       </c>
       <c r="B463" s="14">
+        <v>207</v>
+      </c>
+      <c r="C463" s="14">
+        <v>207</v>
+      </c>
+      <c r="G463" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>406</v>
+      </c>
+      <c r="B464" s="14">
         <v>208</v>
       </c>
-      <c r="C463" s="14">
+      <c r="C464" s="14">
         <v>208</v>
       </c>
-      <c r="G463" s="4" t="s">
+      <c r="G464" s="4" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="464" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A464" t="s">
-        <v>406</v>
-      </c>
-      <c r="B464" s="14">
+    <row r="465" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>406</v>
+      </c>
+      <c r="B465" s="14">
         <v>209</v>
       </c>
-      <c r="C464" s="14">
+      <c r="C465" s="14">
         <v>209</v>
       </c>
-      <c r="G464" s="4" t="s">
+      <c r="G465" s="4" t="s">
         <v>333</v>
-      </c>
-    </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A465" t="s">
-        <v>406</v>
-      </c>
-      <c r="B465" s="14">
-        <v>210</v>
-      </c>
-      <c r="C465" s="14">
-        <v>210</v>
-      </c>
-      <c r="G465" s="4" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
@@ -8999,13 +9014,13 @@
         <v>406</v>
       </c>
       <c r="B466" s="14">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C466" s="14">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G466" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
@@ -9013,13 +9028,13 @@
         <v>406</v>
       </c>
       <c r="B467" s="14">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C467" s="14">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G467" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
@@ -9027,27 +9042,27 @@
         <v>406</v>
       </c>
       <c r="B468" s="14">
+        <v>212</v>
+      </c>
+      <c r="C468" s="14">
+        <v>212</v>
+      </c>
+      <c r="G468" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>406</v>
+      </c>
+      <c r="B469" s="14">
         <v>213</v>
       </c>
-      <c r="C468" s="14">
+      <c r="C469" s="14">
         <v>213</v>
       </c>
-      <c r="G468" s="4" t="s">
+      <c r="G469" s="4" t="s">
         <v>203</v>
-      </c>
-    </row>
-    <row r="469" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A469" t="s">
-        <v>406</v>
-      </c>
-      <c r="B469" s="14">
-        <v>214</v>
-      </c>
-      <c r="C469" s="14">
-        <v>214</v>
-      </c>
-      <c r="G469" s="4" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="470" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
@@ -9055,13 +9070,13 @@
         <v>406</v>
       </c>
       <c r="B470" s="14">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C470" s="14">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G470" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="471" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
@@ -9069,27 +9084,27 @@
         <v>406</v>
       </c>
       <c r="B471" s="14">
+        <v>215</v>
+      </c>
+      <c r="C471" s="14">
+        <v>215</v>
+      </c>
+      <c r="G471" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>406</v>
+      </c>
+      <c r="B472" s="14">
         <v>216</v>
       </c>
-      <c r="C471" s="14">
+      <c r="C472" s="14">
         <v>216</v>
       </c>
-      <c r="G471" s="4" t="s">
+      <c r="G472" s="4" t="s">
         <v>339</v>
-      </c>
-    </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A472" t="s">
-        <v>406</v>
-      </c>
-      <c r="B472" s="14">
-        <v>217</v>
-      </c>
-      <c r="C472" s="14">
-        <v>217</v>
-      </c>
-      <c r="G472" s="4" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
@@ -9097,13 +9112,13 @@
         <v>406</v>
       </c>
       <c r="B473" s="14">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C473" s="14">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G473" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
@@ -9111,13 +9126,13 @@
         <v>406</v>
       </c>
       <c r="B474" s="14">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C474" s="14">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G474" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
@@ -9125,13 +9140,13 @@
         <v>406</v>
       </c>
       <c r="B475" s="14">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C475" s="14">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G475" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
@@ -9139,13 +9154,13 @@
         <v>406</v>
       </c>
       <c r="B476" s="14">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C476" s="14">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G476" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
@@ -9153,13 +9168,13 @@
         <v>406</v>
       </c>
       <c r="B477" s="14">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C477" s="14">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G477" s="4" t="s">
-        <v>402</v>
+        <v>344</v>
       </c>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
@@ -9167,13 +9182,13 @@
         <v>406</v>
       </c>
       <c r="B478" s="14">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C478" s="14">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G478" s="4" t="s">
-        <v>345</v>
+        <v>402</v>
       </c>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
@@ -9181,13 +9196,13 @@
         <v>406</v>
       </c>
       <c r="B479" s="14">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C479" s="14">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G479" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
@@ -9195,13 +9210,13 @@
         <v>406</v>
       </c>
       <c r="B480" s="14">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C480" s="14">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G480" s="4" t="s">
-        <v>208</v>
+        <v>346</v>
       </c>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
@@ -9209,97 +9224,97 @@
         <v>406</v>
       </c>
       <c r="B481" s="14">
+        <v>225</v>
+      </c>
+      <c r="C481" s="14">
+        <v>225</v>
+      </c>
+      <c r="G481" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>406</v>
+      </c>
+      <c r="B482" s="14">
         <v>226</v>
       </c>
-      <c r="C481" s="14">
+      <c r="C482" s="14">
         <v>226</v>
       </c>
-      <c r="G481" s="4" t="s">
+      <c r="G482" s="4" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="482" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A482" t="s">
-        <v>406</v>
-      </c>
-      <c r="B482" s="14">
+    <row r="483" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>406</v>
+      </c>
+      <c r="B483" s="14">
         <v>227</v>
       </c>
-      <c r="C482" s="14">
+      <c r="C483" s="14">
         <v>227</v>
       </c>
-      <c r="G482" s="4" t="s">
+      <c r="G483" s="4" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A483" t="s">
-        <v>406</v>
-      </c>
-      <c r="B483" s="14">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>406</v>
+      </c>
+      <c r="B484" s="14">
         <v>228</v>
       </c>
-      <c r="C483" s="14">
+      <c r="C484" s="14">
         <v>228</v>
       </c>
-      <c r="G483" s="4" t="s">
+      <c r="G484" s="4" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="484" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A484" t="s">
-        <v>406</v>
-      </c>
-      <c r="B484" s="14">
+    <row r="485" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>406</v>
+      </c>
+      <c r="B485" s="14">
         <v>229</v>
       </c>
-      <c r="C484" s="14">
+      <c r="C485" s="14">
         <v>229</v>
       </c>
-      <c r="G484" s="4" t="s">
+      <c r="G485" s="4" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A485" t="s">
-        <v>406</v>
-      </c>
-      <c r="B485" s="14">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>406</v>
+      </c>
+      <c r="B486" s="14">
         <v>230</v>
       </c>
-      <c r="C485" s="14">
+      <c r="C486" s="14">
         <v>230</v>
       </c>
-      <c r="G485" s="4" t="s">
+      <c r="G486" s="4" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="486" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A486" t="s">
-        <v>406</v>
-      </c>
-      <c r="B486" s="14">
+    <row r="487" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>406</v>
+      </c>
+      <c r="B487" s="14">
         <v>231</v>
       </c>
-      <c r="C486" s="14">
+      <c r="C487" s="14">
         <v>231</v>
       </c>
-      <c r="G486" s="4" t="s">
+      <c r="G487" s="4" t="s">
         <v>352</v>
-      </c>
-    </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A487" t="s">
-        <v>406</v>
-      </c>
-      <c r="B487" s="14">
-        <v>232</v>
-      </c>
-      <c r="C487" s="14">
-        <v>232</v>
-      </c>
-      <c r="G487" s="4" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
@@ -9307,41 +9322,41 @@
         <v>406</v>
       </c>
       <c r="B488" s="14">
+        <v>232</v>
+      </c>
+      <c r="C488" s="14">
+        <v>232</v>
+      </c>
+      <c r="G488" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>406</v>
+      </c>
+      <c r="B489" s="14">
         <v>233</v>
       </c>
-      <c r="C488" s="14">
+      <c r="C489" s="14">
         <v>233</v>
       </c>
-      <c r="G488" s="4" t="s">
+      <c r="G489" s="4" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="489" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A489" t="s">
-        <v>406</v>
-      </c>
-      <c r="B489" s="14">
+    <row r="490" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>406</v>
+      </c>
+      <c r="B490" s="14">
         <v>234</v>
       </c>
-      <c r="C489" s="14">
+      <c r="C490" s="14">
         <v>234</v>
       </c>
-      <c r="G489" s="4" t="s">
+      <c r="G490" s="4" t="s">
         <v>354</v>
-      </c>
-    </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A490" t="s">
-        <v>406</v>
-      </c>
-      <c r="B490" s="14">
-        <v>235</v>
-      </c>
-      <c r="C490" s="14">
-        <v>235</v>
-      </c>
-      <c r="G490" s="4" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.25">
@@ -9349,69 +9364,69 @@
         <v>406</v>
       </c>
       <c r="B491" s="14">
+        <v>235</v>
+      </c>
+      <c r="C491" s="14">
+        <v>235</v>
+      </c>
+      <c r="G491" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>406</v>
+      </c>
+      <c r="B492" s="14">
         <v>236</v>
       </c>
-      <c r="C491" s="14">
+      <c r="C492" s="14">
         <v>236</v>
       </c>
-      <c r="G491" s="4" t="s">
+      <c r="G492" s="4" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="492" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A492" t="s">
-        <v>406</v>
-      </c>
-      <c r="B492" s="14">
+    <row r="493" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>406</v>
+      </c>
+      <c r="B493" s="14">
         <v>237</v>
       </c>
-      <c r="C492" s="14">
+      <c r="C493" s="14">
         <v>237</v>
       </c>
-      <c r="G492" s="4" t="s">
+      <c r="G493" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="493" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A493" t="s">
-        <v>406</v>
-      </c>
-      <c r="B493" s="14">
+    <row r="494" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>406</v>
+      </c>
+      <c r="B494" s="14">
         <v>238</v>
       </c>
-      <c r="C493" s="14">
+      <c r="C494" s="14">
         <v>238</v>
       </c>
-      <c r="G493" s="4" t="s">
+      <c r="G494" s="4" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A494" t="s">
-        <v>406</v>
-      </c>
-      <c r="B494" s="14">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>406</v>
+      </c>
+      <c r="B495" s="14">
         <v>239</v>
       </c>
-      <c r="C494" s="14">
+      <c r="C495" s="14">
         <v>239</v>
       </c>
-      <c r="G494" s="4" t="s">
+      <c r="G495" s="4" t="s">
         <v>357</v>
-      </c>
-    </row>
-    <row r="495" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A495" t="s">
-        <v>406</v>
-      </c>
-      <c r="B495" s="14">
-        <v>240</v>
-      </c>
-      <c r="C495" s="14">
-        <v>240</v>
-      </c>
-      <c r="G495" s="4" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="496" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
@@ -9419,27 +9434,27 @@
         <v>406</v>
       </c>
       <c r="B496" s="14">
+        <v>240</v>
+      </c>
+      <c r="C496" s="14">
+        <v>240</v>
+      </c>
+      <c r="G496" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>406</v>
+      </c>
+      <c r="B497" s="14">
         <v>241</v>
       </c>
-      <c r="C496" s="14">
+      <c r="C497" s="14">
         <v>241</v>
       </c>
-      <c r="G496" s="4" t="s">
+      <c r="G497" s="4" t="s">
         <v>359</v>
-      </c>
-    </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A497" t="s">
-        <v>406</v>
-      </c>
-      <c r="B497" s="14">
-        <v>242</v>
-      </c>
-      <c r="C497" s="14">
-        <v>242</v>
-      </c>
-      <c r="G497" s="4" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.25">
@@ -9447,13 +9462,13 @@
         <v>406</v>
       </c>
       <c r="B498" s="14">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C498" s="14">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G498" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.25">
@@ -9461,27 +9476,27 @@
         <v>406</v>
       </c>
       <c r="B499" s="14">
+        <v>243</v>
+      </c>
+      <c r="C499" s="14">
+        <v>243</v>
+      </c>
+      <c r="G499" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>406</v>
+      </c>
+      <c r="B500" s="14">
         <v>244</v>
       </c>
-      <c r="C499" s="14">
+      <c r="C500" s="14">
         <v>244</v>
       </c>
-      <c r="G499" s="4" t="s">
+      <c r="G500" s="4" t="s">
         <v>362</v>
-      </c>
-    </row>
-    <row r="500" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A500" t="s">
-        <v>406</v>
-      </c>
-      <c r="B500" s="14">
-        <v>245</v>
-      </c>
-      <c r="C500" s="14">
-        <v>245</v>
-      </c>
-      <c r="G500" s="4" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="501" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
@@ -9489,13 +9504,13 @@
         <v>406</v>
       </c>
       <c r="B501" s="14">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C501" s="14">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G501" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="502" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
@@ -9503,13 +9518,13 @@
         <v>406</v>
       </c>
       <c r="B502" s="14">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C502" s="14">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G502" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="503" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
@@ -9517,13 +9532,13 @@
         <v>406</v>
       </c>
       <c r="B503" s="14">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C503" s="14">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G503" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="504" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
@@ -9531,13 +9546,13 @@
         <v>406</v>
       </c>
       <c r="B504" s="14">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C504" s="14">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G504" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="505" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
@@ -9545,13 +9560,13 @@
         <v>406</v>
       </c>
       <c r="B505" s="14">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C505" s="14">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G505" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="506" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
@@ -9559,13 +9574,13 @@
         <v>406</v>
       </c>
       <c r="B506" s="14">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C506" s="14">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G506" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="507" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
@@ -9573,13 +9588,13 @@
         <v>406</v>
       </c>
       <c r="B507" s="14">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C507" s="14">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G507" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="508" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
@@ -9587,13 +9602,13 @@
         <v>406</v>
       </c>
       <c r="B508" s="14">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C508" s="14">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G508" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="509" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
@@ -9601,27 +9616,27 @@
         <v>406</v>
       </c>
       <c r="B509" s="14">
+        <v>253</v>
+      </c>
+      <c r="C509" s="14">
+        <v>253</v>
+      </c>
+      <c r="G509" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>406</v>
+      </c>
+      <c r="B510" s="14">
         <v>254</v>
       </c>
-      <c r="C509" s="14">
+      <c r="C510" s="14">
         <v>254</v>
       </c>
-      <c r="G509" s="4" t="s">
+      <c r="G510" s="4" t="s">
         <v>372</v>
-      </c>
-    </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A510" t="s">
-        <v>406</v>
-      </c>
-      <c r="B510" s="14">
-        <v>255</v>
-      </c>
-      <c r="C510" s="14">
-        <v>255</v>
-      </c>
-      <c r="G510" s="4" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
@@ -9629,41 +9644,41 @@
         <v>406</v>
       </c>
       <c r="B511" s="14">
+        <v>255</v>
+      </c>
+      <c r="C511" s="14">
+        <v>255</v>
+      </c>
+      <c r="G511" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>406</v>
+      </c>
+      <c r="B512" s="14">
         <v>256</v>
       </c>
-      <c r="C511" s="14">
+      <c r="C512" s="14">
         <v>256</v>
       </c>
-      <c r="G511" s="4" t="s">
+      <c r="G512" s="4" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="512" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A512" t="s">
-        <v>406</v>
-      </c>
-      <c r="B512" s="14">
+    <row r="513" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>406</v>
+      </c>
+      <c r="B513" s="14">
         <v>257</v>
       </c>
-      <c r="C512" s="14">
+      <c r="C513" s="14">
         <v>257</v>
       </c>
-      <c r="G512" s="4" t="s">
+      <c r="G513" s="4" t="s">
         <v>375</v>
-      </c>
-    </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A513" t="s">
-        <v>406</v>
-      </c>
-      <c r="B513" s="14">
-        <v>258</v>
-      </c>
-      <c r="C513" s="14">
-        <v>258</v>
-      </c>
-      <c r="G513" s="4" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.25">
@@ -9671,41 +9686,41 @@
         <v>406</v>
       </c>
       <c r="B514" s="14">
+        <v>258</v>
+      </c>
+      <c r="C514" s="14">
+        <v>258</v>
+      </c>
+      <c r="G514" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>406</v>
+      </c>
+      <c r="B515" s="14">
         <v>259</v>
       </c>
-      <c r="C514" s="14">
+      <c r="C515" s="14">
         <v>259</v>
       </c>
-      <c r="G514" s="4" t="s">
+      <c r="G515" s="4" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="515" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A515" t="s">
-        <v>406</v>
-      </c>
-      <c r="B515" s="14">
+    <row r="516" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>406</v>
+      </c>
+      <c r="B516" s="14">
         <v>260</v>
       </c>
-      <c r="C515" s="14">
+      <c r="C516" s="14">
         <v>260</v>
       </c>
-      <c r="G515" s="4" t="s">
+      <c r="G516" s="4" t="s">
         <v>378</v>
-      </c>
-    </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A516" t="s">
-        <v>406</v>
-      </c>
-      <c r="B516" s="14">
-        <v>261</v>
-      </c>
-      <c r="C516" s="14">
-        <v>261</v>
-      </c>
-      <c r="G516" s="4" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.25">
@@ -9713,13 +9728,13 @@
         <v>406</v>
       </c>
       <c r="B517" s="14">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C517" s="14">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G517" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.25">
@@ -9727,27 +9742,27 @@
         <v>406</v>
       </c>
       <c r="B518" s="14">
+        <v>262</v>
+      </c>
+      <c r="C518" s="14">
+        <v>262</v>
+      </c>
+      <c r="G518" s="4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>406</v>
+      </c>
+      <c r="B519" s="14">
         <v>263</v>
       </c>
-      <c r="C518" s="14">
+      <c r="C519" s="14">
         <v>263</v>
       </c>
-      <c r="G518" s="4" t="s">
+      <c r="G519" s="4" t="s">
         <v>381</v>
-      </c>
-    </row>
-    <row r="519" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A519" t="s">
-        <v>406</v>
-      </c>
-      <c r="B519" s="14">
-        <v>264</v>
-      </c>
-      <c r="C519" s="14">
-        <v>264</v>
-      </c>
-      <c r="G519" s="4" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="520" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
@@ -9755,27 +9770,27 @@
         <v>406</v>
       </c>
       <c r="B520" s="14">
+        <v>264</v>
+      </c>
+      <c r="C520" s="14">
+        <v>264</v>
+      </c>
+      <c r="G520" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>406</v>
+      </c>
+      <c r="B521" s="14">
         <v>265</v>
       </c>
-      <c r="C520" s="14">
+      <c r="C521" s="14">
         <v>265</v>
       </c>
-      <c r="G520" s="4" t="s">
+      <c r="G521" s="4" t="s">
         <v>244</v>
-      </c>
-    </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A521" t="s">
-        <v>406</v>
-      </c>
-      <c r="B521" s="14">
-        <v>266</v>
-      </c>
-      <c r="C521" s="14">
-        <v>266</v>
-      </c>
-      <c r="G521" s="4" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.25">
@@ -9783,13 +9798,13 @@
         <v>406</v>
       </c>
       <c r="B522" s="14">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C522" s="14">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G522" s="4" t="s">
-        <v>383</v>
+        <v>245</v>
       </c>
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.25">
@@ -9797,41 +9812,41 @@
         <v>406</v>
       </c>
       <c r="B523" s="14">
+        <v>267</v>
+      </c>
+      <c r="C523" s="14">
+        <v>267</v>
+      </c>
+      <c r="G523" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>406</v>
+      </c>
+      <c r="B524" s="14">
         <v>268</v>
       </c>
-      <c r="C523" s="14">
+      <c r="C524" s="14">
         <v>268</v>
       </c>
-      <c r="G523" s="4" t="s">
+      <c r="G524" s="4" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="524" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A524" t="s">
-        <v>406</v>
-      </c>
-      <c r="B524" s="14">
+    <row r="525" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>406</v>
+      </c>
+      <c r="B525" s="14">
         <v>269</v>
       </c>
-      <c r="C524" s="14">
+      <c r="C525" s="14">
         <v>269</v>
       </c>
-      <c r="G524" s="4" t="s">
+      <c r="G525" s="4" t="s">
         <v>385</v>
-      </c>
-    </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A525" t="s">
-        <v>406</v>
-      </c>
-      <c r="B525" s="14">
-        <v>270</v>
-      </c>
-      <c r="C525" s="14">
-        <v>270</v>
-      </c>
-      <c r="G525" s="4" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.25">
@@ -9839,13 +9854,13 @@
         <v>406</v>
       </c>
       <c r="B526" s="14">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C526" s="14">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G526" s="4" t="s">
-        <v>386</v>
+        <v>312</v>
       </c>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.25">
@@ -9853,13 +9868,13 @@
         <v>406</v>
       </c>
       <c r="B527" s="14">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C527" s="14">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G527" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.25">
@@ -9867,97 +9882,97 @@
         <v>406</v>
       </c>
       <c r="B528" s="14">
+        <v>272</v>
+      </c>
+      <c r="C528" s="14">
+        <v>272</v>
+      </c>
+      <c r="G528" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>406</v>
+      </c>
+      <c r="B529" s="14">
         <v>273</v>
       </c>
-      <c r="C528" s="14">
+      <c r="C529" s="14">
         <v>273</v>
       </c>
-      <c r="G528" s="4" t="s">
+      <c r="G529" s="4" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="529" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A529" t="s">
-        <v>406</v>
-      </c>
-      <c r="B529" s="14">
+    <row r="530" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>406</v>
+      </c>
+      <c r="B530" s="14">
         <v>274</v>
       </c>
-      <c r="C529" s="14">
+      <c r="C530" s="14">
         <v>274</v>
       </c>
-      <c r="G529" s="4" t="s">
+      <c r="G530" s="4" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A530" t="s">
-        <v>406</v>
-      </c>
-      <c r="B530" s="14">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>406</v>
+      </c>
+      <c r="B531" s="14">
         <v>275</v>
       </c>
-      <c r="C530" s="14">
+      <c r="C531" s="14">
         <v>275</v>
       </c>
-      <c r="G530" s="4" t="s">
+      <c r="G531" s="4" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="531" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A531" t="s">
-        <v>406</v>
-      </c>
-      <c r="B531" s="14">
+    <row r="532" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>406</v>
+      </c>
+      <c r="B532" s="14">
         <v>276</v>
       </c>
-      <c r="C531" s="14">
+      <c r="C532" s="14">
         <v>276</v>
       </c>
-      <c r="G531" s="4" t="s">
+      <c r="G532" s="4" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A532" t="s">
-        <v>406</v>
-      </c>
-      <c r="B532" s="14">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>406</v>
+      </c>
+      <c r="B533" s="14">
         <v>277</v>
       </c>
-      <c r="C532" s="14">
+      <c r="C533" s="14">
         <v>277</v>
       </c>
-      <c r="G532" s="4" t="s">
+      <c r="G533" s="4" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="533" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A533" t="s">
-        <v>406</v>
-      </c>
-      <c r="B533" s="14">
+    <row r="534" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>406</v>
+      </c>
+      <c r="B534" s="14">
         <v>278</v>
       </c>
-      <c r="C533" s="14">
+      <c r="C534" s="14">
         <v>278</v>
       </c>
-      <c r="G533" s="4" t="s">
+      <c r="G534" s="4" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A534" t="s">
-        <v>406</v>
-      </c>
-      <c r="B534" s="14">
-        <v>279</v>
-      </c>
-      <c r="C534" s="14">
-        <v>279</v>
-      </c>
-      <c r="G534" s="4" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.25">
@@ -9965,13 +9980,13 @@
         <v>406</v>
       </c>
       <c r="B535" s="14">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C535" s="14">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G535" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.25">
@@ -9979,13 +9994,13 @@
         <v>406</v>
       </c>
       <c r="B536" s="14">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C536" s="14">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G536" s="4" t="s">
-        <v>207</v>
+        <v>395</v>
       </c>
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.25">
@@ -9993,13 +10008,13 @@
         <v>406</v>
       </c>
       <c r="B537" s="14">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C537" s="14">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G537" s="4" t="s">
-        <v>396</v>
+        <v>207</v>
       </c>
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.25">
@@ -10007,41 +10022,41 @@
         <v>406</v>
       </c>
       <c r="B538" s="14">
+        <v>282</v>
+      </c>
+      <c r="C538" s="14">
+        <v>282</v>
+      </c>
+      <c r="G538" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>406</v>
+      </c>
+      <c r="B539" s="14">
         <v>283</v>
       </c>
-      <c r="C538" s="14">
+      <c r="C539" s="14">
         <v>283</v>
       </c>
-      <c r="G538" s="4" t="s">
+      <c r="G539" s="4" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="539" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A539" t="s">
-        <v>406</v>
-      </c>
-      <c r="B539" s="14">
+    <row r="540" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>406</v>
+      </c>
+      <c r="B540" s="14">
         <v>284</v>
       </c>
-      <c r="C539" s="14">
+      <c r="C540" s="14">
         <v>284</v>
       </c>
-      <c r="G539" s="4" t="s">
+      <c r="G540" s="4" t="s">
         <v>398</v>
-      </c>
-    </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A540" t="s">
-        <v>406</v>
-      </c>
-      <c r="B540" s="14">
-        <v>285</v>
-      </c>
-      <c r="C540" s="14">
-        <v>285</v>
-      </c>
-      <c r="G540" s="4" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.25">
@@ -10049,13 +10064,13 @@
         <v>406</v>
       </c>
       <c r="B541" s="14">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C541" s="14">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G541" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.25">
@@ -10063,19 +10078,28 @@
         <v>406</v>
       </c>
       <c r="B542" s="14">
+        <v>286</v>
+      </c>
+      <c r="C542" s="14">
+        <v>286</v>
+      </c>
+      <c r="G542" s="4" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>406</v>
+      </c>
+      <c r="B543" s="14">
         <v>287</v>
       </c>
-      <c r="C542" s="14">
+      <c r="C543" s="14">
         <v>287</v>
       </c>
-      <c r="G542" s="4" t="s">
+      <c r="G543" s="4" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B543" s="14"/>
-      <c r="C543" s="14"/>
-      <c r="G543" s="4"/>
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B544" s="14"/>
@@ -10646,6 +10670,11 @@
       <c r="B657" s="14"/>
       <c r="C657" s="14"/>
       <c r="G657" s="4"/>
+    </row>
+    <row r="658" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B658" s="14"/>
+      <c r="C658" s="14"/>
+      <c r="G658" s="4"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C24">
@@ -10660,7 +10689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -10681,11 +10710,11 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
         <v>411</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="27" t="s">
         <v>412</v>
       </c>
       <c r="C2" t="s">
